--- a/Code/Results/Cases/Case_5_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_21/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.654655983875728</v>
+        <v>3.802113505566126</v>
       </c>
       <c r="C2">
-        <v>0.5260063799450165</v>
+        <v>1.02295172945918</v>
       </c>
       <c r="D2">
-        <v>0.3427752231915662</v>
+        <v>0.06280391931528584</v>
       </c>
       <c r="E2">
-        <v>0.06224944992869652</v>
+        <v>0.1277944946575751</v>
       </c>
       <c r="F2">
-        <v>6.524855500270149</v>
+        <v>2.063586901486175</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2216789067878722</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1424606705055567</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6716221343780191</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.6668723995417469</v>
+      </c>
+      <c r="O2">
+        <v>1.339676879961814</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.271110238543031</v>
+        <v>3.290726692323176</v>
       </c>
       <c r="C3">
-        <v>0.4494248337550175</v>
+        <v>0.8827841262062748</v>
       </c>
       <c r="D3">
-        <v>0.3042767253550664</v>
+        <v>0.05606978036615828</v>
       </c>
       <c r="E3">
-        <v>0.05614650314556613</v>
+        <v>0.113714696726305</v>
       </c>
       <c r="F3">
-        <v>5.715993653243856</v>
+        <v>1.874517510801354</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.196805319903234</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1231894232698565</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5764023959976114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0.7217891778329903</v>
+      </c>
+      <c r="O3">
+        <v>1.218463277605053</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.042207708435171</v>
+        <v>2.981334494623695</v>
       </c>
       <c r="C4">
-        <v>0.4037168215221811</v>
+        <v>0.7978874335403532</v>
       </c>
       <c r="D4">
-        <v>0.2812699201979427</v>
+        <v>0.05197730894364838</v>
       </c>
       <c r="E4">
-        <v>0.05250619601059014</v>
+        <v>0.1052676039780138</v>
       </c>
       <c r="F4">
-        <v>5.232578981805602</v>
+        <v>1.763545827506405</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1819741454657731</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.111687585787891</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5195727304863524</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0.7570781622439959</v>
+      </c>
+      <c r="O4">
+        <v>1.147603998351428</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.950336861713197</v>
+        <v>2.856249197428951</v>
       </c>
       <c r="C5">
-        <v>0.3853633104126573</v>
+        <v>0.7635394698907589</v>
       </c>
       <c r="D5">
-        <v>0.2720270409482453</v>
+        <v>0.05031905932659697</v>
       </c>
       <c r="E5">
-        <v>0.05104582141702885</v>
+        <v>0.101869817830071</v>
       </c>
       <c r="F5">
-        <v>5.038403797522903</v>
+        <v>1.719486788304479</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1760292619646791</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1070717886482484</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4967649826364635</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0.7718356198438041</v>
+      </c>
+      <c r="O5">
+        <v>1.119538417405806</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.935160116034154</v>
+        <v>2.83553445783798</v>
       </c>
       <c r="C6">
-        <v>0.3823306606691972</v>
+        <v>0.7578497549141332</v>
       </c>
       <c r="D6">
-        <v>0.2704995653107432</v>
+        <v>0.05004424757854053</v>
       </c>
       <c r="E6">
-        <v>0.05080461789105506</v>
+        <v>0.1013081574655885</v>
       </c>
       <c r="F6">
-        <v>5.006317760537854</v>
+        <v>1.71223762133404</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1750477620901307</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1063093230316596</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4929973249634614</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0.7743083564455198</v>
+      </c>
+      <c r="O6">
+        <v>1.114924686007043</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.040963310728046</v>
+        <v>2.979643728447627</v>
       </c>
       <c r="C7">
-        <v>0.4034682654877031</v>
+        <v>0.7974232571689868</v>
       </c>
       <c r="D7">
-        <v>0.2811447631558366</v>
+        <v>0.05195490836022287</v>
       </c>
       <c r="E7">
-        <v>0.05248641216546446</v>
+        <v>0.1052216068627594</v>
       </c>
       <c r="F7">
-        <v>5.229949476277</v>
+        <v>1.762947080002363</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1818935852334818</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1116250615911376</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5192637916834286</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0.7572756828299259</v>
+      </c>
+      <c r="O7">
+        <v>1.14722232500614</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.520880151612062</v>
+        <v>3.624729876744709</v>
       </c>
       <c r="C8">
-        <v>0.4992915671219578</v>
+        <v>0.9743511995808944</v>
       </c>
       <c r="D8">
-        <v>0.329353131849075</v>
+        <v>0.06047246215045732</v>
       </c>
       <c r="E8">
-        <v>0.06012052959455261</v>
+        <v>0.1228953505862052</v>
       </c>
       <c r="F8">
-        <v>6.242890108342863</v>
+        <v>1.997255478421295</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2130033197827146</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.135739687322495</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6384121334845858</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0.6854706499541834</v>
+      </c>
+      <c r="O8">
+        <v>1.297087670868265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.527490245536683</v>
+        <v>4.934438933957153</v>
       </c>
       <c r="C9">
-        <v>0.7006654450955807</v>
+        <v>1.332852673904824</v>
       </c>
       <c r="D9">
-        <v>0.4302701813083587</v>
+        <v>0.07757095338490672</v>
       </c>
       <c r="E9">
-        <v>0.07613784149329916</v>
+        <v>0.1593911693932526</v>
       </c>
       <c r="F9">
-        <v>8.360735611015372</v>
+        <v>2.503565087962144</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2781160149718431</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1862749163110067</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.8882176071058154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0.5580070733792404</v>
+      </c>
+      <c r="O9">
+        <v>1.623618012005792</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.328988805986171</v>
+        <v>5.936829835413221</v>
       </c>
       <c r="C10">
-        <v>0.8619626743605977</v>
+        <v>1.606903392567574</v>
       </c>
       <c r="D10">
-        <v>0.5105813036811355</v>
+        <v>0.09046932091170135</v>
       </c>
       <c r="E10">
-        <v>0.08887196005586873</v>
+        <v>0.1877450141462305</v>
       </c>
       <c r="F10">
-        <v>10.0408791274719</v>
+        <v>2.913881126703728</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.3294103989618264</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2264149071753465</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1.086900194153401</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0.4738869541987789</v>
+      </c>
+      <c r="O10">
+        <v>1.890252761352713</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.713339280963964</v>
+        <v>6.404913371233533</v>
       </c>
       <c r="C11">
-        <v>0.9397237905682516</v>
+        <v>1.734837537951194</v>
       </c>
       <c r="D11">
-        <v>0.5491006490240409</v>
+        <v>0.09643476560876252</v>
       </c>
       <c r="E11">
-        <v>0.09496695324243021</v>
+        <v>0.2010875063679123</v>
       </c>
       <c r="F11">
-        <v>10.84461542853165</v>
+        <v>3.111411851919087</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.3537441285044025</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.245621021620515</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1.182081497023418</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0.4380506647924065</v>
+      </c>
+      <c r="O11">
+        <v>2.019134964240024</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.862387826997633</v>
+        <v>6.584227424558435</v>
       </c>
       <c r="C12">
-        <v>0.9699598418579853</v>
+        <v>1.783844788801105</v>
       </c>
       <c r="D12">
-        <v>0.5640404023048404</v>
+        <v>0.09871016813854538</v>
       </c>
       <c r="E12">
-        <v>0.09732806722291443</v>
+        <v>0.2062143971763675</v>
       </c>
       <c r="F12">
-        <v>11.1559482921968</v>
+        <v>3.188022914592096</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.3631265486990429</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2530605713402849</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1.218973463040371</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0.4248656504152137</v>
+      </c>
+      <c r="O12">
+        <v>2.069203620460442</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.83011956904511</v>
+        <v>6.545511651863706</v>
       </c>
       <c r="C13">
-        <v>0.9634099204836843</v>
+        <v>1.773263632458395</v>
       </c>
       <c r="D13">
-        <v>0.5608059057343837</v>
+        <v>0.09821934858290149</v>
       </c>
       <c r="E13">
-        <v>0.09681702344799348</v>
+        <v>0.2051067383677321</v>
       </c>
       <c r="F13">
-        <v>11.08856311970374</v>
+        <v>3.171438529343789</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.3610979959980938</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.251450363798071</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1.210987460396396</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0.4276875108494238</v>
+      </c>
+      <c r="O13">
+        <v>2.058361222319661</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.725527050944379</v>
+        <v>6.419622333442703</v>
       </c>
       <c r="C14">
-        <v>0.9421944623402396</v>
+        <v>1.738857571511971</v>
       </c>
       <c r="D14">
-        <v>0.5503222294633474</v>
+        <v>0.09662162075620273</v>
       </c>
       <c r="E14">
-        <v>0.09516007749169475</v>
+        <v>0.2015077426797092</v>
       </c>
       <c r="F14">
-        <v>10.8700806904086</v>
+        <v>3.117676869260464</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.3545125138450231</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2462295403688941</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>1.185098575363838</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0.4369579775175865</v>
+      </c>
+      <c r="O14">
+        <v>2.02322773947634</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.66193956040712</v>
+        <v>6.342790225847011</v>
       </c>
       <c r="C15">
-        <v>0.9293075491231662</v>
+        <v>1.717858915027193</v>
       </c>
       <c r="D15">
-        <v>0.5439489490412655</v>
+        <v>0.0956451793262687</v>
       </c>
       <c r="E15">
-        <v>0.09415238176777052</v>
+        <v>0.1993132769463699</v>
       </c>
       <c r="F15">
-        <v>10.73720580075155</v>
+        <v>3.08498998439174</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3505013345920247</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2430543502782072</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>1.169356732291611</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0.4426877508011025</v>
+      </c>
+      <c r="O15">
+        <v>2.001877581796705</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.304321476649022</v>
+        <v>5.906509327791696</v>
       </c>
       <c r="C16">
-        <v>0.8569818464837624</v>
+        <v>1.598615871524942</v>
       </c>
       <c r="D16">
-        <v>0.5081094017604642</v>
+        <v>0.09008162807903375</v>
       </c>
       <c r="E16">
-        <v>0.08848049655858503</v>
+        <v>0.1868828545668109</v>
       </c>
       <c r="F16">
-        <v>9.989251969510008</v>
+        <v>2.901211183674235</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.3278422255981326</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.22518125159921</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>1.080789262364128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0.4762808035954755</v>
+      </c>
+      <c r="O16">
+        <v>1.881996916989266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.090420925558135</v>
+        <v>5.642177646070706</v>
       </c>
       <c r="C17">
-        <v>0.8138381029625634</v>
+        <v>1.526362077570354</v>
       </c>
       <c r="D17">
-        <v>0.4866754552890882</v>
+        <v>0.08669521414856973</v>
       </c>
       <c r="E17">
-        <v>0.08508462328571653</v>
+        <v>0.1793779928758994</v>
       </c>
       <c r="F17">
-        <v>9.541352062946999</v>
+        <v>2.79141937128739</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3142136948936951</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2144788552233834</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>1.027788040046786</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0.4975355608802481</v>
+      </c>
+      <c r="O17">
+        <v>1.81051306990625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.969202396777291</v>
+        <v>5.491257390114129</v>
       </c>
       <c r="C18">
-        <v>0.789424489458753</v>
+        <v>1.485104932367108</v>
       </c>
       <c r="D18">
-        <v>0.4745293017970198</v>
+        <v>0.08475649707950339</v>
       </c>
       <c r="E18">
-        <v>0.08315917218667934</v>
+        <v>0.1751024962893695</v>
       </c>
       <c r="F18">
-        <v>9.287351146729776</v>
+        <v>2.729277098149197</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3064673969584391</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2084100294486362</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.9977436747072232</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0.5099870701843159</v>
+      </c>
+      <c r="O18">
+        <v>1.770100104558963</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.928453006144082</v>
+        <v>5.440341001587228</v>
       </c>
       <c r="C19">
-        <v>0.7812231397747667</v>
+        <v>1.471185141939486</v>
       </c>
       <c r="D19">
-        <v>0.4704462544678165</v>
+        <v>0.08410157041517863</v>
       </c>
       <c r="E19">
-        <v>0.08251175415831469</v>
+        <v>0.1736616486650036</v>
       </c>
       <c r="F19">
-        <v>9.201936929559679</v>
+        <v>2.708402790130833</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.303859837341804</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2063693251833882</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.9876425249781065</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0.5142407955490853</v>
+      </c>
+      <c r="O19">
+        <v>1.756532775426734</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.112999168521014</v>
+        <v>5.670198473496157</v>
       </c>
       <c r="C20">
-        <v>0.8183882325969023</v>
+        <v>1.534021808963018</v>
       </c>
       <c r="D20">
-        <v>0.48893784397427</v>
+        <v>0.08705475021596243</v>
       </c>
       <c r="E20">
-        <v>0.08544318269710871</v>
+        <v>0.180172572833122</v>
       </c>
       <c r="F20">
-        <v>9.588648594973762</v>
+        <v>2.803000990909766</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.3156547413077817</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2156089474658245</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>1.03338347311162</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0.4952492864150422</v>
+      </c>
+      <c r="O20">
+        <v>1.818048751611727</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.756147301022565</v>
+        <v>6.456540349433681</v>
       </c>
       <c r="C21">
-        <v>0.9484030775038548</v>
+        <v>1.748947434521426</v>
       </c>
       <c r="D21">
-        <v>0.5533913365601109</v>
+        <v>0.09709044632526087</v>
       </c>
       <c r="E21">
-        <v>0.0956452355141586</v>
+        <v>0.2025627452979535</v>
       </c>
       <c r="F21">
-        <v>10.93405315992732</v>
+        <v>3.133416698353415</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.3564420680936564</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2477582249396164</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>1.192678292312578</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0.4342242450783154</v>
+      </c>
+      <c r="O21">
+        <v>2.03351150012351</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.197325574135903</v>
+        <v>6.982656984585958</v>
       </c>
       <c r="C22">
-        <v>1.038080272430506</v>
+        <v>1.89273836951719</v>
       </c>
       <c r="D22">
-        <v>0.5976177927946651</v>
+        <v>0.1037463794011586</v>
       </c>
       <c r="E22">
-        <v>0.1026282646342942</v>
+        <v>0.2176355397968308</v>
       </c>
       <c r="F22">
-        <v>11.85483635671625</v>
+        <v>3.360056015143783</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.3840905370597767</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2697600566113962</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>1.301835350174144</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0.3966078546937197</v>
+      </c>
+      <c r="O22">
+        <v>2.181793629389446</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.95969300710334</v>
+        <v>6.700623897113189</v>
       </c>
       <c r="C23">
-        <v>0.9897246760808969</v>
+        <v>1.815656395685892</v>
       </c>
       <c r="D23">
-        <v>0.5737944509447459</v>
+        <v>0.1001842451985056</v>
       </c>
       <c r="E23">
-        <v>0.09886869144197519</v>
+        <v>0.2095468208616396</v>
       </c>
       <c r="F23">
-        <v>11.35909216669324</v>
+        <v>3.23802500657979</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.3692344390596389</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2579147411931757</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>1.24305217538182</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0.4164637491222223</v>
+      </c>
+      <c r="O23">
+        <v>2.101906017959536</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.102786124251281</v>
+        <v>5.657527018301323</v>
       </c>
       <c r="C24">
-        <v>0.8163299147861096</v>
+        <v>1.530557971145299</v>
       </c>
       <c r="D24">
-        <v>0.4879144731871179</v>
+        <v>0.08689217866152887</v>
       </c>
       <c r="E24">
-        <v>0.08528099495574182</v>
+        <v>0.1798132220702797</v>
       </c>
       <c r="F24">
-        <v>9.567255017433382</v>
+        <v>2.797761911041164</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.3150029690090435</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.215097772951701</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>1.030852460122865</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0.4962821915426368</v>
+      </c>
+      <c r="O24">
+        <v>1.814639751968414</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.246122881856422</v>
+        <v>4.574103014351181</v>
       </c>
       <c r="C25">
-        <v>0.6442730670828496</v>
+        <v>1.234285254489919</v>
       </c>
       <c r="D25">
-        <v>0.402074491739441</v>
+        <v>0.07289387935401237</v>
       </c>
       <c r="E25">
-        <v>0.07166205259419201</v>
+        <v>0.1492809674977806</v>
       </c>
       <c r="F25">
-        <v>7.769630446301647</v>
+        <v>2.360641752633796</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2599702013210248</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1721600884226788</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.8184166741136423</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0.590927268882929</v>
+      </c>
+      <c r="O25">
+        <v>1.5311319732361</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_21/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.802113505566126</v>
+        <v>0.868722426016916</v>
       </c>
       <c r="C2">
-        <v>1.02295172945918</v>
+        <v>0.1146436158162487</v>
       </c>
       <c r="D2">
-        <v>0.06280391931528584</v>
+        <v>0.05759505009827137</v>
       </c>
       <c r="E2">
-        <v>0.1277944946575751</v>
+        <v>0.3351059605522906</v>
       </c>
       <c r="F2">
-        <v>2.063586901486175</v>
+        <v>0.5246885511656032</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2216789067878722</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.8866656512024633</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.5978508172762105</v>
       </c>
       <c r="N2">
-        <v>0.6668723995417469</v>
+        <v>0.7224602863258589</v>
       </c>
       <c r="O2">
-        <v>1.339676879961814</v>
+        <v>1.53620063204761</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.290726692323176</v>
+        <v>0.75442264289984</v>
       </c>
       <c r="C3">
-        <v>0.8827841262062748</v>
+        <v>0.1035129406363779</v>
       </c>
       <c r="D3">
-        <v>0.05606978036615828</v>
+        <v>0.05217940135216992</v>
       </c>
       <c r="E3">
-        <v>0.113714696726305</v>
+        <v>0.2914403714725964</v>
       </c>
       <c r="F3">
-        <v>1.874517510801354</v>
+        <v>0.4930795866694098</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.196805319903234</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.7723074138513653</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.5175051388858165</v>
       </c>
       <c r="N3">
-        <v>0.7217891778329903</v>
+        <v>0.7621690079215249</v>
       </c>
       <c r="O3">
-        <v>1.218463277605053</v>
+        <v>1.478657761620525</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.981334494623695</v>
+        <v>0.6844311257685831</v>
       </c>
       <c r="C4">
-        <v>0.7978874335403532</v>
+        <v>0.09666826091080338</v>
       </c>
       <c r="D4">
-        <v>0.05197730894364838</v>
+        <v>0.0488389012993693</v>
       </c>
       <c r="E4">
-        <v>0.1052676039780138</v>
+        <v>0.2651047506636388</v>
       </c>
       <c r="F4">
-        <v>1.763545827506405</v>
+        <v>0.4746359018606512</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1819741454657731</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.7021940078494993</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.4686031530827179</v>
       </c>
       <c r="N4">
-        <v>0.7570781622439959</v>
+        <v>0.7876364828903633</v>
       </c>
       <c r="O4">
-        <v>1.147603998351428</v>
+        <v>1.44641278593032</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.856249197428951</v>
+        <v>0.6559449396135335</v>
       </c>
       <c r="C5">
-        <v>0.7635394698907589</v>
+        <v>0.09387544516289381</v>
       </c>
       <c r="D5">
-        <v>0.05031905932659697</v>
+        <v>0.04747359243605587</v>
       </c>
       <c r="E5">
-        <v>0.101869817830071</v>
+        <v>0.2544792482286908</v>
       </c>
       <c r="F5">
-        <v>1.719486788304479</v>
+        <v>0.4673488498467862</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1760292619646791</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.6736370341820219</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.4487683765459352</v>
       </c>
       <c r="N5">
-        <v>0.7718356198438041</v>
+        <v>0.7982805185141295</v>
       </c>
       <c r="O5">
-        <v>1.119538417405806</v>
+        <v>1.434008780726941</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.83553445783798</v>
+        <v>0.651216672792458</v>
       </c>
       <c r="C6">
-        <v>0.7578497549141332</v>
+        <v>0.09341145936168971</v>
       </c>
       <c r="D6">
-        <v>0.05004424757854053</v>
+        <v>0.04724663538456042</v>
       </c>
       <c r="E6">
-        <v>0.1013081574655885</v>
+        <v>0.2527209559909593</v>
       </c>
       <c r="F6">
-        <v>1.71223762133404</v>
+        <v>0.4661522805713219</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1750477620901307</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.6688957524246888</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.4454800295597892</v>
       </c>
       <c r="N6">
-        <v>0.7743083564455198</v>
+        <v>0.8000638019764033</v>
       </c>
       <c r="O6">
-        <v>1.114924686007043</v>
+        <v>1.431992429458361</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.979643728447627</v>
+        <v>0.6840468205188017</v>
       </c>
       <c r="C7">
-        <v>0.7974232571689868</v>
+        <v>0.09663061160400588</v>
       </c>
       <c r="D7">
-        <v>0.05195490836022287</v>
+        <v>0.04882050481617028</v>
       </c>
       <c r="E7">
-        <v>0.1052216068627594</v>
+        <v>0.2649610369715845</v>
       </c>
       <c r="F7">
-        <v>1.762947080002363</v>
+        <v>0.474536716802838</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1818935852334818</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.7018088327716754</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.4683352964082488</v>
       </c>
       <c r="N7">
-        <v>0.7572756828299259</v>
+        <v>0.787778965089549</v>
       </c>
       <c r="O7">
-        <v>1.14722232500614</v>
+        <v>1.446242572281292</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.624729876744709</v>
+        <v>0.8292654177869849</v>
       </c>
       <c r="C8">
-        <v>0.9743511995808944</v>
+        <v>0.1108073310440005</v>
       </c>
       <c r="D8">
-        <v>0.06047246215045732</v>
+        <v>0.05573078525484476</v>
       </c>
       <c r="E8">
-        <v>0.1228953505862052</v>
+        <v>0.3199433464654433</v>
       </c>
       <c r="F8">
-        <v>1.997255478421295</v>
+        <v>0.513581229321133</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2130033197827146</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.8472066454252172</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.5700488869715983</v>
       </c>
       <c r="N8">
-        <v>0.6854706499541834</v>
+        <v>0.7359219255178715</v>
       </c>
       <c r="O8">
-        <v>1.297087670868265</v>
+        <v>1.515694470234394</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.934438933957153</v>
+        <v>1.116107094444629</v>
       </c>
       <c r="C9">
-        <v>1.332852673904824</v>
+        <v>0.1385720209505763</v>
       </c>
       <c r="D9">
-        <v>0.07757095338490672</v>
+        <v>0.06917035195291277</v>
       </c>
       <c r="E9">
-        <v>0.1593911693932526</v>
+        <v>0.4321656006515084</v>
       </c>
       <c r="F9">
-        <v>2.503565087962144</v>
+        <v>0.5984502790279365</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2781160149718431</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.13369409351489</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.7736590903328135</v>
       </c>
       <c r="N9">
-        <v>0.5580070733792404</v>
+        <v>0.6431929361254056</v>
       </c>
       <c r="O9">
-        <v>1.623618012005792</v>
+        <v>1.678297873970479</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.936829835413221</v>
+        <v>1.328970988818583</v>
       </c>
       <c r="C10">
-        <v>1.606903392567574</v>
+        <v>0.1590206965694279</v>
       </c>
       <c r="D10">
-        <v>0.09046932091170135</v>
+        <v>0.07899166627110077</v>
       </c>
       <c r="E10">
-        <v>0.1877450141462305</v>
+        <v>0.5182477052412011</v>
       </c>
       <c r="F10">
-        <v>2.913881126703728</v>
+        <v>0.6668304964871226</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3294103989618264</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.345834686498762</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.9268853688618464</v>
       </c>
       <c r="N10">
-        <v>0.4738869541987789</v>
+        <v>0.5810324574178196</v>
       </c>
       <c r="O10">
-        <v>1.890252761352713</v>
+        <v>1.816703768976708</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.404913371233533</v>
+        <v>1.426475321574742</v>
       </c>
       <c r="C11">
-        <v>1.734837537951194</v>
+        <v>0.16835169538966</v>
       </c>
       <c r="D11">
-        <v>0.09643476560876252</v>
+        <v>0.08345184132968342</v>
       </c>
       <c r="E11">
-        <v>0.2010875063679123</v>
+        <v>0.5584275630335966</v>
       </c>
       <c r="F11">
-        <v>3.111411851919087</v>
+        <v>0.699477139446941</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3537441285044025</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.442902131832113</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.9976476463619406</v>
       </c>
       <c r="N11">
-        <v>0.4380506647924065</v>
+        <v>0.554170046985643</v>
       </c>
       <c r="O11">
-        <v>2.019134964240024</v>
+        <v>1.88445969591757</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.584227424558435</v>
+        <v>1.463512376119354</v>
       </c>
       <c r="C12">
-        <v>1.783844788801105</v>
+        <v>0.1718907989481551</v>
       </c>
       <c r="D12">
-        <v>0.09871016813854538</v>
+        <v>0.08514000678642475</v>
       </c>
       <c r="E12">
-        <v>0.2062143971763675</v>
+        <v>0.5738102628357638</v>
       </c>
       <c r="F12">
-        <v>3.188022914592096</v>
+        <v>0.7120815989578375</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3631265486990429</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.479757627271454</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.024619675306042</v>
       </c>
       <c r="N12">
-        <v>0.4248656504152137</v>
+        <v>0.5442123736119022</v>
       </c>
       <c r="O12">
-        <v>2.069203620460442</v>
+        <v>1.910867442305033</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.545511651863706</v>
+        <v>1.455530404584636</v>
       </c>
       <c r="C13">
-        <v>1.773263632458395</v>
+        <v>0.1711283125249707</v>
       </c>
       <c r="D13">
-        <v>0.09821934858290149</v>
+        <v>0.08477646123709093</v>
       </c>
       <c r="E13">
-        <v>0.2051067383677321</v>
+        <v>0.5704895270356474</v>
       </c>
       <c r="F13">
-        <v>3.171438529343789</v>
+        <v>0.7093559042657205</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3610979959980938</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.471815484484466</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.018802546555953</v>
       </c>
       <c r="N13">
-        <v>0.4276875108494238</v>
+        <v>0.5463472095606328</v>
       </c>
       <c r="O13">
-        <v>2.058361222319661</v>
+        <v>1.905145689681916</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.419622333442703</v>
+        <v>1.429519985728234</v>
       </c>
       <c r="C14">
-        <v>1.738857571511971</v>
+        <v>0.1686427370431289</v>
       </c>
       <c r="D14">
-        <v>0.09662162075620273</v>
+        <v>0.08359074216505746</v>
       </c>
       <c r="E14">
-        <v>0.2015077426797092</v>
+        <v>0.5596896260761</v>
       </c>
       <c r="F14">
-        <v>3.117676869260464</v>
+        <v>0.7005091459846398</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3545125138450231</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.445932185599048</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.9998629840914575</v>
       </c>
       <c r="N14">
-        <v>0.4369579775175865</v>
+        <v>0.5533464570331876</v>
       </c>
       <c r="O14">
-        <v>2.02322773947634</v>
+        <v>1.886616881820942</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.342790225847011</v>
+        <v>1.413603284473055</v>
       </c>
       <c r="C15">
-        <v>1.717858915027193</v>
+        <v>0.167121034221708</v>
       </c>
       <c r="D15">
-        <v>0.0956451793262687</v>
+        <v>0.08286435884197374</v>
       </c>
       <c r="E15">
-        <v>0.1993132769463699</v>
+        <v>0.5530968270791234</v>
       </c>
       <c r="F15">
-        <v>3.08498998439174</v>
+        <v>0.695122382650851</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3505013345920247</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.430091231483317</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.9882855953963201</v>
       </c>
       <c r="N15">
-        <v>0.4426877508011025</v>
+        <v>0.5576619808599528</v>
       </c>
       <c r="O15">
-        <v>2.001877581796705</v>
+        <v>1.875367005803696</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.906509327791696</v>
+        <v>1.322613848185966</v>
       </c>
       <c r="C16">
-        <v>1.598615871524942</v>
+        <v>0.1584115999191766</v>
       </c>
       <c r="D16">
-        <v>0.09008162807903375</v>
+        <v>0.07870005455062312</v>
       </c>
       <c r="E16">
-        <v>0.1868828545668109</v>
+        <v>0.5156441246625363</v>
       </c>
       <c r="F16">
-        <v>2.901211183674235</v>
+        <v>0.664729665026087</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3278422255981326</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.339503875301688</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.9222841711384433</v>
       </c>
       <c r="N16">
-        <v>0.4762808035954755</v>
+        <v>0.5828173777771521</v>
       </c>
       <c r="O16">
-        <v>1.881996916989266</v>
+        <v>1.812377316689577</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.642177646070706</v>
+        <v>1.266978956291439</v>
       </c>
       <c r="C17">
-        <v>1.526362077570354</v>
+        <v>0.1530770572141193</v>
       </c>
       <c r="D17">
-        <v>0.08669521414856973</v>
+        <v>0.07614364153493369</v>
       </c>
       <c r="E17">
-        <v>0.1793779928758994</v>
+        <v>0.4929437042455547</v>
       </c>
       <c r="F17">
-        <v>2.79141937128739</v>
+        <v>0.6464932540636141</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3142136948936951</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.284087592136984</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.8820818550768763</v>
       </c>
       <c r="N17">
-        <v>0.4975355608802481</v>
+        <v>0.5986193916178646</v>
       </c>
       <c r="O17">
-        <v>1.81051306990625</v>
+        <v>1.775004895945131</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.491257390114129</v>
+        <v>1.235041303700797</v>
       </c>
       <c r="C18">
-        <v>1.485104932367108</v>
+        <v>0.1500113812838038</v>
       </c>
       <c r="D18">
-        <v>0.08475649707950339</v>
+        <v>0.07467252770075561</v>
       </c>
       <c r="E18">
-        <v>0.1751024962893695</v>
+        <v>0.4799817560825232</v>
       </c>
       <c r="F18">
-        <v>2.729277098149197</v>
+        <v>0.636147812045337</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3064673969584391</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.252265562994552</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.8590566889928297</v>
       </c>
       <c r="N18">
-        <v>0.5099870701843159</v>
+        <v>0.6078407398214782</v>
       </c>
       <c r="O18">
-        <v>1.770100104558963</v>
+        <v>1.753956655956642</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.440341001587228</v>
+        <v>1.224237904488689</v>
       </c>
       <c r="C19">
-        <v>1.471185141939486</v>
+        <v>0.1489738005917047</v>
       </c>
       <c r="D19">
-        <v>0.08410157041517863</v>
+        <v>0.07417429962409017</v>
       </c>
       <c r="E19">
-        <v>0.1736616486650036</v>
+        <v>0.475608731337374</v>
       </c>
       <c r="F19">
-        <v>2.708402790130833</v>
+        <v>0.6326690983057333</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.303859837341804</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.241499593117993</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.8512769304047865</v>
       </c>
       <c r="N19">
-        <v>0.5142407955490853</v>
+        <v>0.6109853524159803</v>
       </c>
       <c r="O19">
-        <v>1.756532775426734</v>
+        <v>1.746905147199271</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.670198473496157</v>
+        <v>1.272894837758258</v>
       </c>
       <c r="C20">
-        <v>1.534021808963018</v>
+        <v>0.1536446474948008</v>
       </c>
       <c r="D20">
-        <v>0.08705475021596243</v>
+        <v>0.07641584989038819</v>
       </c>
       <c r="E20">
-        <v>0.180172572833122</v>
+        <v>0.4953502538790957</v>
       </c>
       <c r="F20">
-        <v>2.803000990909766</v>
+        <v>0.6484195397212744</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3156547413077817</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.289981253527259</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.8863511377635334</v>
       </c>
       <c r="N20">
-        <v>0.4952492864150422</v>
+        <v>0.5969234545164319</v>
       </c>
       <c r="O20">
-        <v>1.818048751611727</v>
+        <v>1.778936525918226</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.456540349433681</v>
+        <v>1.437156626843063</v>
       </c>
       <c r="C21">
-        <v>1.748947434521426</v>
+        <v>0.1693726445490995</v>
       </c>
       <c r="D21">
-        <v>0.09709044632526087</v>
+        <v>0.08393903609941589</v>
       </c>
       <c r="E21">
-        <v>0.2025627452979535</v>
+        <v>0.5628571003314704</v>
       </c>
       <c r="F21">
-        <v>3.133416698353415</v>
+        <v>0.7031009186158172</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3564420680936564</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.453531930888602</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.005421021175017</v>
       </c>
       <c r="N21">
-        <v>0.4342242450783154</v>
+        <v>0.5512846933401221</v>
       </c>
       <c r="O21">
-        <v>2.03351150012351</v>
+        <v>1.89203838035013</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.982656984585958</v>
+        <v>1.545186517293587</v>
       </c>
       <c r="C22">
-        <v>1.89273836951719</v>
+        <v>0.179685572838622</v>
       </c>
       <c r="D22">
-        <v>0.1037463794011586</v>
+        <v>0.08885132214622615</v>
       </c>
       <c r="E22">
-        <v>0.2176355397968308</v>
+        <v>0.6079637125822046</v>
       </c>
       <c r="F22">
-        <v>3.360056015143783</v>
+        <v>0.7402588096536817</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3840905370597767</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.561002822012853</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.0842776856556</v>
       </c>
       <c r="N22">
-        <v>0.3966078546937197</v>
+        <v>0.5227133676441831</v>
       </c>
       <c r="O22">
-        <v>2.181793629389446</v>
+        <v>1.970360261090264</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.700623897113189</v>
+        <v>1.487460930509343</v>
       </c>
       <c r="C23">
-        <v>1.815656395685892</v>
+        <v>0.174177742660774</v>
       </c>
       <c r="D23">
-        <v>0.1001842451985056</v>
+        <v>0.08622985941871519</v>
       </c>
       <c r="E23">
-        <v>0.2095468208616396</v>
+        <v>0.5837918509372955</v>
       </c>
       <c r="F23">
-        <v>3.23802500657979</v>
+        <v>0.7202898349911067</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3692344390596389</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.503584411737961</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.04208713800606</v>
       </c>
       <c r="N23">
-        <v>0.4164637491222223</v>
+        <v>0.5378435913993602</v>
       </c>
       <c r="O23">
-        <v>2.101906017959536</v>
+        <v>1.928134279294369</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.657527018301323</v>
+        <v>1.27022012084521</v>
       </c>
       <c r="C24">
-        <v>1.530557971145299</v>
+        <v>0.1533880362299413</v>
       </c>
       <c r="D24">
-        <v>0.08689217866152887</v>
+        <v>0.07629278886847857</v>
       </c>
       <c r="E24">
-        <v>0.1798132220702797</v>
+        <v>0.4942619776595976</v>
       </c>
       <c r="F24">
-        <v>2.797761911041164</v>
+        <v>0.6475482348167532</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3150029690090435</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.287316613592083</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.8844207237171346</v>
       </c>
       <c r="N24">
-        <v>0.4962821915426368</v>
+        <v>0.5976897631567137</v>
       </c>
       <c r="O24">
-        <v>1.814639751968414</v>
+        <v>1.777157677316836</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.574103014351181</v>
+        <v>1.038202036110874</v>
       </c>
       <c r="C25">
-        <v>1.234285254489919</v>
+        <v>0.1310576947605711</v>
       </c>
       <c r="D25">
-        <v>0.07289387935401237</v>
+        <v>0.06554501345044628</v>
       </c>
       <c r="E25">
-        <v>0.1492809674977806</v>
+        <v>0.4012416157038317</v>
       </c>
       <c r="F25">
-        <v>2.360641752633796</v>
+        <v>0.5745061866064702</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2599702013210248</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.055963759734453</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.71802370180243</v>
       </c>
       <c r="N25">
-        <v>0.590927268882929</v>
+        <v>0.6672691612889103</v>
       </c>
       <c r="O25">
-        <v>1.5311319732361</v>
+        <v>1.631200113463478</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_21/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.868722426016916</v>
+        <v>0.3069574617624653</v>
       </c>
       <c r="C2">
-        <v>0.1146436158162487</v>
+        <v>0.04707455330056121</v>
       </c>
       <c r="D2">
-        <v>0.05759505009827137</v>
+        <v>0.03034126822065275</v>
       </c>
       <c r="E2">
-        <v>0.3351059605522906</v>
+        <v>0.1597681957234514</v>
       </c>
       <c r="F2">
-        <v>0.5246885511656032</v>
+        <v>0.7466487791299841</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8866656512024633</v>
+        <v>0.2775569654750143</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5978508172762105</v>
+        <v>0.2255241579484561</v>
       </c>
       <c r="N2">
-        <v>0.7224602863258589</v>
+        <v>1.501335007875126</v>
       </c>
       <c r="O2">
-        <v>1.53620063204761</v>
+        <v>2.576247709650858</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.75442264289984</v>
+        <v>0.2734750974589133</v>
       </c>
       <c r="C3">
-        <v>0.1035129406363779</v>
+        <v>0.04344008859901294</v>
       </c>
       <c r="D3">
-        <v>0.05217940135216992</v>
+        <v>0.02844548043141515</v>
       </c>
       <c r="E3">
-        <v>0.2914403714725964</v>
+        <v>0.1487329861242443</v>
       </c>
       <c r="F3">
-        <v>0.4930795866694098</v>
+        <v>0.7437578374085021</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7723074138513653</v>
+        <v>0.243139811749856</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5175051388858165</v>
+        <v>0.2033048863317291</v>
       </c>
       <c r="N3">
-        <v>0.7621690079215249</v>
+        <v>1.518021207761241</v>
       </c>
       <c r="O3">
-        <v>1.478657761620525</v>
+        <v>2.579888993381729</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6844311257685831</v>
+        <v>0.252954556317178</v>
       </c>
       <c r="C4">
-        <v>0.09666826091080338</v>
+        <v>0.04119035834491314</v>
       </c>
       <c r="D4">
-        <v>0.0488389012993693</v>
+        <v>0.02726995512389152</v>
       </c>
       <c r="E4">
-        <v>0.2651047506636388</v>
+        <v>0.1420638794958577</v>
       </c>
       <c r="F4">
-        <v>0.4746359018606512</v>
+        <v>0.7424312632612455</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7021940078494993</v>
+        <v>0.2219865104311083</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4686031530827179</v>
+        <v>0.1897423394864575</v>
       </c>
       <c r="N4">
-        <v>0.7876364828903633</v>
+        <v>1.528791050497801</v>
       </c>
       <c r="O4">
-        <v>1.44641278593032</v>
+        <v>2.583585944296644</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6559449396135335</v>
+        <v>0.2446021479260594</v>
       </c>
       <c r="C5">
-        <v>0.09387544516289381</v>
+        <v>0.04026904427728084</v>
       </c>
       <c r="D5">
-        <v>0.04747359243605587</v>
+        <v>0.02678805104179105</v>
       </c>
       <c r="E5">
-        <v>0.2544792482286908</v>
+        <v>0.1393727600291967</v>
       </c>
       <c r="F5">
-        <v>0.4673488498467862</v>
+        <v>0.7420034464434622</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6736370341820219</v>
+        <v>0.2133614458601585</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4487683765459352</v>
+        <v>0.1842356117007355</v>
       </c>
       <c r="N5">
-        <v>0.7982805185141295</v>
+        <v>1.533311674359807</v>
       </c>
       <c r="O5">
-        <v>1.434008780726941</v>
+        <v>2.585459812436724</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.651216672792458</v>
+        <v>0.2432158447921324</v>
       </c>
       <c r="C6">
-        <v>0.09341145936168971</v>
+        <v>0.04011578814749583</v>
       </c>
       <c r="D6">
-        <v>0.04724663538456042</v>
+        <v>0.02670785874732928</v>
       </c>
       <c r="E6">
-        <v>0.2527209559909593</v>
+        <v>0.1389275021947896</v>
       </c>
       <c r="F6">
-        <v>0.4661522805713219</v>
+        <v>0.7419392190108951</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6688957524246888</v>
+        <v>0.2119289739284369</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4454800295597892</v>
+        <v>0.1833224377961216</v>
       </c>
       <c r="N6">
-        <v>0.8000638019764033</v>
+        <v>1.534070280978531</v>
       </c>
       <c r="O6">
-        <v>1.431992429458361</v>
+        <v>2.585793149894755</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6840468205188017</v>
+        <v>0.2528418723109667</v>
       </c>
       <c r="C7">
-        <v>0.09663061160400588</v>
+        <v>0.04117795147899272</v>
       </c>
       <c r="D7">
-        <v>0.04882050481617028</v>
+        <v>0.0272634675764607</v>
       </c>
       <c r="E7">
-        <v>0.2649610369715845</v>
+        <v>0.1420274786953968</v>
       </c>
       <c r="F7">
-        <v>0.474536716802838</v>
+        <v>0.7424250369616701</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7018088327716754</v>
+        <v>0.2218702092406346</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4683352964082488</v>
+        <v>0.1896679924169007</v>
       </c>
       <c r="N7">
-        <v>0.787778965089549</v>
+        <v>1.528851483525036</v>
       </c>
       <c r="O7">
-        <v>1.446242572281292</v>
+        <v>2.58360972876261</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8292654177869849</v>
+        <v>0.2954051231704398</v>
       </c>
       <c r="C8">
-        <v>0.1108073310440005</v>
+        <v>0.04582517733172153</v>
       </c>
       <c r="D8">
-        <v>0.05573078525484476</v>
+        <v>0.029690002582754</v>
       </c>
       <c r="E8">
-        <v>0.3199433464654433</v>
+        <v>0.1559410164013855</v>
       </c>
       <c r="F8">
-        <v>0.513581229321133</v>
+        <v>0.7455588981920727</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8472066454252172</v>
+        <v>0.2656945045555119</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5700488869715983</v>
+        <v>0.2178462812302371</v>
       </c>
       <c r="N8">
-        <v>0.7359219255178715</v>
+        <v>1.506979530991161</v>
       </c>
       <c r="O8">
-        <v>1.515694470234394</v>
+        <v>2.577199889859344</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.116107094444629</v>
+        <v>0.3791585438694369</v>
       </c>
       <c r="C9">
-        <v>0.1385720209505763</v>
+        <v>0.05479322258470631</v>
       </c>
       <c r="D9">
-        <v>0.06917035195291277</v>
+        <v>0.03435626375856771</v>
       </c>
       <c r="E9">
-        <v>0.4321656006515084</v>
+        <v>0.184081356257586</v>
       </c>
       <c r="F9">
-        <v>0.5984502790279365</v>
+        <v>0.7552642961534772</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.13369409351489</v>
+        <v>0.3514550262920011</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7736590903328135</v>
+        <v>0.2737447342510677</v>
       </c>
       <c r="N9">
-        <v>0.6431929361254056</v>
+        <v>1.468251585543371</v>
       </c>
       <c r="O9">
-        <v>1.678297873970479</v>
+        <v>2.576231566654911</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.328970988818583</v>
+        <v>0.4408562900354127</v>
       </c>
       <c r="C10">
-        <v>0.1590206965694279</v>
+        <v>0.06129266680953549</v>
       </c>
       <c r="D10">
-        <v>0.07899166627110077</v>
+        <v>0.03772748102181822</v>
       </c>
       <c r="E10">
-        <v>0.5182477052412011</v>
+        <v>0.2052944720597552</v>
       </c>
       <c r="F10">
-        <v>0.6668304964871226</v>
+        <v>0.764569173393312</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.345834686498762</v>
+        <v>0.4143443601893466</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9268853688618464</v>
+        <v>0.3152148378202497</v>
       </c>
       <c r="N10">
-        <v>0.5810324574178196</v>
+        <v>1.442337222943445</v>
       </c>
       <c r="O10">
-        <v>1.816703768976708</v>
+        <v>2.582607475424311</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.426475321574742</v>
+        <v>0.4689578846499671</v>
       </c>
       <c r="C11">
-        <v>0.16835169538966</v>
+        <v>0.06422987158329363</v>
       </c>
       <c r="D11">
-        <v>0.08345184132968342</v>
+        <v>0.03924856618433381</v>
       </c>
       <c r="E11">
-        <v>0.5584275630335966</v>
+        <v>0.215065472280827</v>
       </c>
       <c r="F11">
-        <v>0.699477139446941</v>
+        <v>0.7692753502321921</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.442902131832113</v>
+        <v>0.4429267800225034</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9976476463619406</v>
+        <v>0.3341704033445154</v>
       </c>
       <c r="N11">
-        <v>0.554170046985643</v>
+        <v>1.431099715214041</v>
       </c>
       <c r="O11">
-        <v>1.88445969591757</v>
+        <v>2.587050496684213</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.463512376119354</v>
+        <v>0.4796039507425007</v>
       </c>
       <c r="C12">
-        <v>0.1718907989481551</v>
+        <v>0.0653392944196014</v>
       </c>
       <c r="D12">
-        <v>0.08514000678642475</v>
+        <v>0.03982274263158558</v>
       </c>
       <c r="E12">
-        <v>0.5738102628357638</v>
+        <v>0.21878315229376</v>
       </c>
       <c r="F12">
-        <v>0.7120815989578375</v>
+        <v>0.7711255631687237</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.479757627271454</v>
+        <v>0.4537461332288331</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.024619675306042</v>
+        <v>0.3413615212004188</v>
       </c>
       <c r="N12">
-        <v>0.5442123736119022</v>
+        <v>1.426923668676894</v>
       </c>
       <c r="O12">
-        <v>1.910867442305033</v>
+        <v>2.588954982172083</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.455530404584636</v>
+        <v>0.4773109320678373</v>
       </c>
       <c r="C13">
-        <v>0.1711283125249707</v>
+        <v>0.06510048698271476</v>
       </c>
       <c r="D13">
-        <v>0.08477646123709093</v>
+        <v>0.03969916509885962</v>
       </c>
       <c r="E13">
-        <v>0.5704895270356474</v>
+        <v>0.2179816966768229</v>
       </c>
       <c r="F13">
-        <v>0.7093559042657205</v>
+        <v>0.7707240582584944</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.471815484484466</v>
+        <v>0.4514161848230458</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.018802546555953</v>
+        <v>0.3398122041824365</v>
       </c>
       <c r="N13">
-        <v>0.5463472095606328</v>
+        <v>1.42781952394005</v>
       </c>
       <c r="O13">
-        <v>1.905145689681916</v>
+        <v>2.588534940221422</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.429519985728234</v>
+        <v>0.4698336531352822</v>
       </c>
       <c r="C14">
-        <v>0.1686427370431289</v>
+        <v>0.06432120146916986</v>
       </c>
       <c r="D14">
-        <v>0.08359074216505746</v>
+        <v>0.03929584077430093</v>
       </c>
       <c r="E14">
-        <v>0.5596896260761</v>
+        <v>0.2153709738461913</v>
       </c>
       <c r="F14">
-        <v>0.7005091459846398</v>
+        <v>0.7694262037092443</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.445932185599048</v>
+        <v>0.4438169810439661</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9998629840914575</v>
+        <v>0.33476175911116</v>
       </c>
       <c r="N14">
-        <v>0.5533464570331876</v>
+        <v>1.430754558338892</v>
       </c>
       <c r="O14">
-        <v>1.886616881820942</v>
+        <v>2.587202729373217</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.413603284473055</v>
+        <v>0.4652541905035719</v>
       </c>
       <c r="C15">
-        <v>0.167121034221708</v>
+        <v>0.06384349649299281</v>
       </c>
       <c r="D15">
-        <v>0.08286435884197374</v>
+        <v>0.03904855440776345</v>
       </c>
       <c r="E15">
-        <v>0.5530968270791234</v>
+        <v>0.2137741307960255</v>
       </c>
       <c r="F15">
-        <v>0.695122382650851</v>
+        <v>0.7686400976983236</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.430091231483317</v>
+        <v>0.4391616915108614</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9882855953963201</v>
+        <v>0.3316699168271384</v>
       </c>
       <c r="N15">
-        <v>0.5576619808599528</v>
+        <v>1.432562689200186</v>
       </c>
       <c r="O15">
-        <v>1.875367005803696</v>
+        <v>2.586415629542131</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.322613848185966</v>
+        <v>0.4390204520542795</v>
       </c>
       <c r="C16">
-        <v>0.1584115999191766</v>
+        <v>0.06110031930472815</v>
       </c>
       <c r="D16">
-        <v>0.07870005455062312</v>
+        <v>0.03762782061422598</v>
       </c>
       <c r="E16">
-        <v>0.5156441246625363</v>
+        <v>0.2046583677667755</v>
       </c>
       <c r="F16">
-        <v>0.664729665026087</v>
+        <v>0.7642711402333759</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.339503875301688</v>
+        <v>0.41247586819307</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.9222841711384433</v>
+        <v>0.3139778726423188</v>
       </c>
       <c r="N16">
-        <v>0.5828173777771521</v>
+        <v>1.443082718797049</v>
       </c>
       <c r="O16">
-        <v>1.812377316689577</v>
+        <v>2.582348170388258</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.266978956291439</v>
+        <v>0.4229355581424556</v>
       </c>
       <c r="C17">
-        <v>0.1530770572141193</v>
+        <v>0.05941246556679403</v>
       </c>
       <c r="D17">
-        <v>0.07614364153493369</v>
+        <v>0.03675302520878176</v>
       </c>
       <c r="E17">
-        <v>0.4929437042455547</v>
+        <v>0.1990972934537965</v>
       </c>
       <c r="F17">
-        <v>0.6464932540636141</v>
+        <v>0.7617121748877835</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.284087592136984</v>
+        <v>0.3960979615617362</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8820818550768763</v>
+        <v>0.3031476030184095</v>
       </c>
       <c r="N17">
-        <v>0.5986193916178646</v>
+        <v>1.449677635650861</v>
       </c>
       <c r="O17">
-        <v>1.775004895945131</v>
+        <v>2.580248143317363</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.235041303700797</v>
+        <v>0.4136872707346981</v>
       </c>
       <c r="C18">
-        <v>0.1500113812838038</v>
+        <v>0.05843983072834646</v>
       </c>
       <c r="D18">
-        <v>0.07467252770075561</v>
+        <v>0.03624869130064923</v>
       </c>
       <c r="E18">
-        <v>0.4799817560825232</v>
+        <v>0.1959100917404868</v>
       </c>
       <c r="F18">
-        <v>0.636147812045337</v>
+        <v>0.7602848776923921</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.252265562994552</v>
+        <v>0.3866753764795305</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8590566889928297</v>
+        <v>0.2969268451991098</v>
       </c>
       <c r="N18">
-        <v>0.6078407398214782</v>
+        <v>1.453522719494321</v>
       </c>
       <c r="O18">
-        <v>1.753956655956642</v>
+        <v>2.579185447808214</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.224237904488689</v>
+        <v>0.4105565424548274</v>
       </c>
       <c r="C19">
-        <v>0.1489738005917047</v>
+        <v>0.05811020087192276</v>
       </c>
       <c r="D19">
-        <v>0.07417429962409017</v>
+        <v>0.03607773160440786</v>
       </c>
       <c r="E19">
-        <v>0.475608731337374</v>
+        <v>0.1948329083922076</v>
       </c>
       <c r="F19">
-        <v>0.6326690983057333</v>
+        <v>0.7598092706155768</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.241499593117993</v>
+        <v>0.3834846435057671</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8512769304047865</v>
+        <v>0.2948220671307382</v>
       </c>
       <c r="N19">
-        <v>0.6109853524159803</v>
+        <v>1.454833502841048</v>
       </c>
       <c r="O19">
-        <v>1.746905147199271</v>
+        <v>2.578850567240721</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.272894837758258</v>
+        <v>0.4246474822432447</v>
       </c>
       <c r="C20">
-        <v>0.1536446474948008</v>
+        <v>0.05959232975158102</v>
       </c>
       <c r="D20">
-        <v>0.07641584989038819</v>
+        <v>0.03684627045753786</v>
       </c>
       <c r="E20">
-        <v>0.4953502538790957</v>
+        <v>0.1996880998977488</v>
       </c>
       <c r="F20">
-        <v>0.6484195397212744</v>
+        <v>0.7619799700057328</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.289981253527259</v>
+        <v>0.397841673867191</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8863511377635334</v>
+        <v>0.3042996210159075</v>
       </c>
       <c r="N20">
-        <v>0.5969234545164319</v>
+        <v>1.44897022716065</v>
       </c>
       <c r="O20">
-        <v>1.778936525918226</v>
+        <v>2.580456667367258</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.437156626843063</v>
+        <v>0.4720297897237913</v>
       </c>
       <c r="C21">
-        <v>0.1693726445490995</v>
+        <v>0.06455017371138183</v>
       </c>
       <c r="D21">
-        <v>0.08393903609941589</v>
+        <v>0.03941435667330495</v>
       </c>
       <c r="E21">
-        <v>0.5628571003314704</v>
+        <v>0.2161373267239881</v>
       </c>
       <c r="F21">
-        <v>0.7031009186158172</v>
+        <v>0.7698055670632016</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.453531930888602</v>
+        <v>0.4460491683835244</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.005421021175017</v>
+        <v>0.3362448426873215</v>
       </c>
       <c r="N21">
-        <v>0.5512846933401221</v>
+        <v>1.429890313052695</v>
       </c>
       <c r="O21">
-        <v>1.89203838035013</v>
+        <v>2.587588005219203</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.545186517293587</v>
+        <v>0.503023492289941</v>
       </c>
       <c r="C22">
-        <v>0.179685572838622</v>
+        <v>0.06777388091623493</v>
       </c>
       <c r="D22">
-        <v>0.08885132214622615</v>
+        <v>0.04108209599903745</v>
       </c>
       <c r="E22">
-        <v>0.6079637125822046</v>
+        <v>0.2269906132914343</v>
       </c>
       <c r="F22">
-        <v>0.7402588096536817</v>
+        <v>0.7753169126578996</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.561002822012853</v>
+        <v>0.4775309447403515</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.0842776856556</v>
+        <v>0.3571990076318841</v>
       </c>
       <c r="N22">
-        <v>0.5227133676441831</v>
+        <v>1.417883074047749</v>
       </c>
       <c r="O22">
-        <v>1.970360261090264</v>
+        <v>2.593542876277354</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.487460930509343</v>
+        <v>0.4864792752467224</v>
       </c>
       <c r="C23">
-        <v>0.174177742660774</v>
+        <v>0.0660548533064258</v>
       </c>
       <c r="D23">
-        <v>0.08622985941871519</v>
+        <v>0.04019297625615792</v>
       </c>
       <c r="E23">
-        <v>0.5837918509372955</v>
+        <v>0.2211885382546726</v>
       </c>
       <c r="F23">
-        <v>0.7202898349911067</v>
+        <v>0.7723390841501896</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.503584411737961</v>
+        <v>0.4607309166050868</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.04208713800606</v>
+        <v>0.3460084019974943</v>
       </c>
       <c r="N23">
-        <v>0.5378435913993602</v>
+        <v>1.424249199263469</v>
       </c>
       <c r="O23">
-        <v>1.928134279294369</v>
+        <v>2.590246174757908</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.27022012084521</v>
+        <v>0.4238735240286928</v>
       </c>
       <c r="C24">
-        <v>0.1533880362299413</v>
+        <v>0.05951102020779331</v>
       </c>
       <c r="D24">
-        <v>0.07629278886847857</v>
+        <v>0.03680411864618094</v>
       </c>
       <c r="E24">
-        <v>0.4942619776595976</v>
+        <v>0.1994209653795096</v>
       </c>
       <c r="F24">
-        <v>0.6475482348167532</v>
+        <v>0.7618587631313645</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.287316613592083</v>
+        <v>0.3970533623996459</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8844207237171346</v>
+        <v>0.3037787759033534</v>
       </c>
       <c r="N24">
-        <v>0.5976897631567137</v>
+        <v>1.449289879649237</v>
       </c>
       <c r="O24">
-        <v>1.777157677316836</v>
+        <v>2.580361943113985</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.038202036110874</v>
+        <v>0.3564714194400551</v>
       </c>
       <c r="C25">
-        <v>0.1310576947605711</v>
+        <v>0.05238276043010615</v>
       </c>
       <c r="D25">
-        <v>0.06554501345044628</v>
+        <v>0.03310387632460277</v>
       </c>
       <c r="E25">
-        <v>0.4012416157038317</v>
+        <v>0.1763752981699653</v>
       </c>
       <c r="F25">
-        <v>0.5745061866064702</v>
+        <v>0.752257190075035</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.055963759734453</v>
+        <v>0.328274698999337</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.71802370180243</v>
+        <v>0.2585529892774545</v>
       </c>
       <c r="N25">
-        <v>0.6672691612889103</v>
+        <v>1.478282736382013</v>
       </c>
       <c r="O25">
-        <v>1.631200113463478</v>
+        <v>2.575249986083747</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_21/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3069574617624653</v>
+        <v>0.8687224260170865</v>
       </c>
       <c r="C2">
-        <v>0.04707455330056121</v>
+        <v>0.1146436158159219</v>
       </c>
       <c r="D2">
-        <v>0.03034126822065275</v>
+        <v>0.05759505009839216</v>
       </c>
       <c r="E2">
-        <v>0.1597681957234514</v>
+        <v>0.3351059605522906</v>
       </c>
       <c r="F2">
-        <v>0.7466487791299841</v>
+        <v>0.5246885511655819</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2775569654750143</v>
+        <v>0.8866656512023781</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2255241579484561</v>
+        <v>0.5978508172762034</v>
       </c>
       <c r="N2">
-        <v>1.501335007875126</v>
+        <v>0.7224602863258518</v>
       </c>
       <c r="O2">
-        <v>2.576247709650858</v>
+        <v>1.536200632047667</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2734750974589133</v>
+        <v>0.7544226428997263</v>
       </c>
       <c r="C3">
-        <v>0.04344008859901294</v>
+        <v>0.1035129406363779</v>
       </c>
       <c r="D3">
-        <v>0.02844548043141515</v>
+        <v>0.05217940135216992</v>
       </c>
       <c r="E3">
-        <v>0.1487329861242443</v>
+        <v>0.2914403714726177</v>
       </c>
       <c r="F3">
-        <v>0.7437578374085021</v>
+        <v>0.4930795866694027</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.243139811749856</v>
+        <v>0.7723074138514789</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2033048863317291</v>
+        <v>0.5175051388858165</v>
       </c>
       <c r="N3">
-        <v>1.518021207761241</v>
+        <v>0.7621690079214734</v>
       </c>
       <c r="O3">
-        <v>2.579888993381729</v>
+        <v>1.478657761620525</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.252954556317178</v>
+        <v>0.6844311257684694</v>
       </c>
       <c r="C4">
-        <v>0.04119035834491314</v>
+        <v>0.09666826091080338</v>
       </c>
       <c r="D4">
-        <v>0.02726995512389152</v>
+        <v>0.04883890129926272</v>
       </c>
       <c r="E4">
-        <v>0.1420638794958577</v>
+        <v>0.2651047506636317</v>
       </c>
       <c r="F4">
-        <v>0.7424312632612455</v>
+        <v>0.4746359018606512</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2219865104311083</v>
+        <v>0.7021940078495561</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1897423394864575</v>
+        <v>0.4686031530827179</v>
       </c>
       <c r="N4">
-        <v>1.528791050497801</v>
+        <v>0.787636482890365</v>
       </c>
       <c r="O4">
-        <v>2.583585944296644</v>
+        <v>1.446412785930363</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2446021479260594</v>
+        <v>0.6559449396133346</v>
       </c>
       <c r="C5">
-        <v>0.04026904427728084</v>
+        <v>0.09387544516298618</v>
       </c>
       <c r="D5">
-        <v>0.02678805104179105</v>
+        <v>0.04747359243617666</v>
       </c>
       <c r="E5">
-        <v>0.1393727600291967</v>
+        <v>0.2544792482286908</v>
       </c>
       <c r="F5">
-        <v>0.7420034464434622</v>
+        <v>0.4673488498467648</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2133614458601585</v>
+        <v>0.6736370341820503</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1842356117007355</v>
+        <v>0.4487683765459423</v>
       </c>
       <c r="N5">
-        <v>1.533311674359807</v>
+        <v>0.7982805185140549</v>
       </c>
       <c r="O5">
-        <v>2.585459812436724</v>
+        <v>1.434008780726884</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2432158447921324</v>
+        <v>0.6512166727923159</v>
       </c>
       <c r="C6">
-        <v>0.04011578814749583</v>
+        <v>0.09341145936152628</v>
       </c>
       <c r="D6">
-        <v>0.02670785874732928</v>
+        <v>0.04724663538463858</v>
       </c>
       <c r="E6">
-        <v>0.1389275021947896</v>
+        <v>0.2527209559909309</v>
       </c>
       <c r="F6">
-        <v>0.7419392190108951</v>
+        <v>0.466152280571329</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2119289739284369</v>
+        <v>0.6688957524246746</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1833224377961216</v>
+        <v>0.4454800295597821</v>
       </c>
       <c r="N6">
-        <v>1.534070280978531</v>
+        <v>0.8000638019763819</v>
       </c>
       <c r="O6">
-        <v>2.585793149894755</v>
+        <v>1.431992429458333</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2528418723109667</v>
+        <v>0.6840468205188586</v>
       </c>
       <c r="C7">
-        <v>0.04117795147899272</v>
+        <v>0.09663061160402009</v>
       </c>
       <c r="D7">
-        <v>0.0272634675764607</v>
+        <v>0.04882050481617028</v>
       </c>
       <c r="E7">
-        <v>0.1420274786953968</v>
+        <v>0.2649610369715703</v>
       </c>
       <c r="F7">
-        <v>0.7424250369616701</v>
+        <v>0.4745367168028523</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2218702092406346</v>
+        <v>0.7018088327716896</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1896679924169007</v>
+        <v>0.4683352964082488</v>
       </c>
       <c r="N7">
-        <v>1.528851483525036</v>
+        <v>0.7877789650894975</v>
       </c>
       <c r="O7">
-        <v>2.58360972876261</v>
+        <v>1.446242572281292</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2954051231704398</v>
+        <v>0.8292654177869849</v>
       </c>
       <c r="C8">
-        <v>0.04582517733172153</v>
+        <v>0.1108073310439863</v>
       </c>
       <c r="D8">
-        <v>0.029690002582754</v>
+        <v>0.05573078525473107</v>
       </c>
       <c r="E8">
-        <v>0.1559410164013855</v>
+        <v>0.3199433464654859</v>
       </c>
       <c r="F8">
-        <v>0.7455588981920727</v>
+        <v>0.513581229321133</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2656945045555119</v>
+        <v>0.8472066454252456</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2178462812302371</v>
+        <v>0.5700488869715841</v>
       </c>
       <c r="N8">
-        <v>1.506979530991161</v>
+        <v>0.7359219255178626</v>
       </c>
       <c r="O8">
-        <v>2.577199889859344</v>
+        <v>1.515694470234394</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3791585438694369</v>
+        <v>1.116107094444715</v>
       </c>
       <c r="C9">
-        <v>0.05479322258470631</v>
+        <v>0.1385720209504768</v>
       </c>
       <c r="D9">
-        <v>0.03435626375856771</v>
+        <v>0.06917035195292698</v>
       </c>
       <c r="E9">
-        <v>0.184081356257586</v>
+        <v>0.4321656006515084</v>
       </c>
       <c r="F9">
-        <v>0.7552642961534772</v>
+        <v>0.5984502790279578</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3514550262920011</v>
+        <v>1.133694093514805</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2737447342510677</v>
+        <v>0.7736590903328135</v>
       </c>
       <c r="N9">
-        <v>1.468251585543371</v>
+        <v>0.6431929361253648</v>
       </c>
       <c r="O9">
-        <v>2.576231566654911</v>
+        <v>1.678297873970394</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4408562900354127</v>
+        <v>1.328970988818668</v>
       </c>
       <c r="C10">
-        <v>0.06129266680953549</v>
+        <v>0.1590206965695131</v>
       </c>
       <c r="D10">
-        <v>0.03772748102181822</v>
+        <v>0.07899166627120735</v>
       </c>
       <c r="E10">
-        <v>0.2052944720597552</v>
+        <v>0.5182477052411798</v>
       </c>
       <c r="F10">
-        <v>0.764569173393312</v>
+        <v>0.6668304964870941</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4143443601893466</v>
+        <v>1.345834686498705</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3152148378202497</v>
+        <v>0.9268853688618321</v>
       </c>
       <c r="N10">
-        <v>1.442337222943445</v>
+        <v>0.5810324574178054</v>
       </c>
       <c r="O10">
-        <v>2.582607475424311</v>
+        <v>1.816703768976652</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4689578846499671</v>
+        <v>1.426475321574657</v>
       </c>
       <c r="C11">
-        <v>0.06422987158329363</v>
+        <v>0.1683516953902284</v>
       </c>
       <c r="D11">
-        <v>0.03924856618433381</v>
+        <v>0.08345184132979711</v>
       </c>
       <c r="E11">
-        <v>0.215065472280827</v>
+        <v>0.5584275630336037</v>
       </c>
       <c r="F11">
-        <v>0.7692753502321921</v>
+        <v>0.6994771394469268</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4429267800225034</v>
+        <v>1.442902131832227</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3341704033445154</v>
+        <v>0.9976476463619477</v>
       </c>
       <c r="N11">
-        <v>1.431099715214041</v>
+        <v>0.5541700469855773</v>
       </c>
       <c r="O11">
-        <v>2.587050496684213</v>
+        <v>1.884459695917542</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4796039507425007</v>
+        <v>1.463512376119326</v>
       </c>
       <c r="C12">
-        <v>0.0653392944196014</v>
+        <v>0.1718907989485245</v>
       </c>
       <c r="D12">
-        <v>0.03982274263158558</v>
+        <v>0.08514000678646738</v>
       </c>
       <c r="E12">
-        <v>0.21878315229376</v>
+        <v>0.573810262835778</v>
       </c>
       <c r="F12">
-        <v>0.7711255631687237</v>
+        <v>0.7120815989578517</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4537461332288331</v>
+        <v>1.479757627271596</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3413615212004188</v>
+        <v>1.024619675306049</v>
       </c>
       <c r="N12">
-        <v>1.426923668676894</v>
+        <v>0.5442123736119022</v>
       </c>
       <c r="O12">
-        <v>2.588954982172083</v>
+        <v>1.910867442305033</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4773109320678373</v>
+        <v>1.455530404584863</v>
       </c>
       <c r="C13">
-        <v>0.06510048698271476</v>
+        <v>0.1711283125251981</v>
       </c>
       <c r="D13">
-        <v>0.03969916509885962</v>
+        <v>0.08477646123720461</v>
       </c>
       <c r="E13">
-        <v>0.2179816966768229</v>
+        <v>0.5704895270356474</v>
       </c>
       <c r="F13">
-        <v>0.7707240582584944</v>
+        <v>0.7093559042657347</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4514161848230458</v>
+        <v>1.471815484484608</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3398122041824365</v>
+        <v>1.018802546555946</v>
       </c>
       <c r="N13">
-        <v>1.42781952394005</v>
+        <v>0.5463472095606257</v>
       </c>
       <c r="O13">
-        <v>2.588534940221422</v>
+        <v>1.905145689681945</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4698336531352822</v>
+        <v>1.429519985728234</v>
       </c>
       <c r="C14">
-        <v>0.06432120146916986</v>
+        <v>0.1686427370429016</v>
       </c>
       <c r="D14">
-        <v>0.03929584077430093</v>
+        <v>0.08359074216517115</v>
       </c>
       <c r="E14">
-        <v>0.2153709738461913</v>
+        <v>0.5596896260760786</v>
       </c>
       <c r="F14">
-        <v>0.7694262037092443</v>
+        <v>0.7005091459846255</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4438169810439661</v>
+        <v>1.445932185598991</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.33476175911116</v>
+        <v>0.9998629840914575</v>
       </c>
       <c r="N14">
-        <v>1.430754558338892</v>
+        <v>0.5533464570331876</v>
       </c>
       <c r="O14">
-        <v>2.587202729373217</v>
+        <v>1.886616881820885</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4652541905035719</v>
+        <v>1.413603284472913</v>
       </c>
       <c r="C15">
-        <v>0.06384349649299281</v>
+        <v>0.1671210342216227</v>
       </c>
       <c r="D15">
-        <v>0.03904855440776345</v>
+        <v>0.08286435884195953</v>
       </c>
       <c r="E15">
-        <v>0.2137741307960255</v>
+        <v>0.5530968270791377</v>
       </c>
       <c r="F15">
-        <v>0.7686400976983236</v>
+        <v>0.695122382650851</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4391616915108614</v>
+        <v>1.430091231483487</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3316699168271384</v>
+        <v>0.9882855953963201</v>
       </c>
       <c r="N15">
-        <v>1.432562689200186</v>
+        <v>0.557661980859951</v>
       </c>
       <c r="O15">
-        <v>2.586415629542131</v>
+        <v>1.875367005803781</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4390204520542795</v>
+        <v>1.322613848185938</v>
       </c>
       <c r="C16">
-        <v>0.06110031930472815</v>
+        <v>0.1584115999189351</v>
       </c>
       <c r="D16">
-        <v>0.03762782061422598</v>
+        <v>0.0787000545507297</v>
       </c>
       <c r="E16">
-        <v>0.2046583677667755</v>
+        <v>0.5156441246625434</v>
       </c>
       <c r="F16">
-        <v>0.7642711402333759</v>
+        <v>0.664729665026087</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.41247586819307</v>
+        <v>1.339503875301801</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3139778726423188</v>
+        <v>0.922284171138422</v>
       </c>
       <c r="N16">
-        <v>1.443082718797049</v>
+        <v>0.5828173777771362</v>
       </c>
       <c r="O16">
-        <v>2.582348170388258</v>
+        <v>1.812377316689549</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4229355581424556</v>
+        <v>1.266978956291467</v>
       </c>
       <c r="C17">
-        <v>0.05941246556679403</v>
+        <v>0.1530770572139204</v>
       </c>
       <c r="D17">
-        <v>0.03675302520878176</v>
+        <v>0.07614364153487685</v>
       </c>
       <c r="E17">
-        <v>0.1990972934537965</v>
+        <v>0.4929437042455547</v>
       </c>
       <c r="F17">
-        <v>0.7617121748877835</v>
+        <v>0.6464932540636141</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3960979615617362</v>
+        <v>1.284087592136984</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3031476030184095</v>
+        <v>0.8820818550768834</v>
       </c>
       <c r="N17">
-        <v>1.449677635650861</v>
+        <v>0.5986193916178699</v>
       </c>
       <c r="O17">
-        <v>2.580248143317363</v>
+        <v>1.775004895945131</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4136872707346981</v>
+        <v>1.235041303700825</v>
       </c>
       <c r="C18">
-        <v>0.05843983072834646</v>
+        <v>0.1500113812839317</v>
       </c>
       <c r="D18">
-        <v>0.03624869130064923</v>
+        <v>0.07467252770080535</v>
       </c>
       <c r="E18">
-        <v>0.1959100917404868</v>
+        <v>0.4799817560825161</v>
       </c>
       <c r="F18">
-        <v>0.7602848776923921</v>
+        <v>0.6361478120453299</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3866753764795305</v>
+        <v>1.252265562994609</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.2969268451991098</v>
+        <v>0.8590566889928226</v>
       </c>
       <c r="N18">
-        <v>1.453522719494321</v>
+        <v>0.6078407398215599</v>
       </c>
       <c r="O18">
-        <v>2.579185447808214</v>
+        <v>1.753956655956728</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4105565424548274</v>
+        <v>1.224237904488774</v>
       </c>
       <c r="C19">
-        <v>0.05811020087192276</v>
+        <v>0.1489738005915626</v>
       </c>
       <c r="D19">
-        <v>0.03607773160440786</v>
+        <v>0.07417429962404753</v>
       </c>
       <c r="E19">
-        <v>0.1948329083922076</v>
+        <v>0.4756087313373811</v>
       </c>
       <c r="F19">
-        <v>0.7598092706155768</v>
+        <v>0.6326690983057333</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3834846435057671</v>
+        <v>1.241499593118078</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2948220671307382</v>
+        <v>0.8512769304047865</v>
       </c>
       <c r="N19">
-        <v>1.454833502841048</v>
+        <v>0.6109853524159696</v>
       </c>
       <c r="O19">
-        <v>2.578850567240721</v>
+        <v>1.746905147199328</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4246474822432447</v>
+        <v>1.272894837758287</v>
       </c>
       <c r="C20">
-        <v>0.05959232975158102</v>
+        <v>0.1536446474948008</v>
       </c>
       <c r="D20">
-        <v>0.03684627045753786</v>
+        <v>0.07641584989038108</v>
       </c>
       <c r="E20">
-        <v>0.1996880998977488</v>
+        <v>0.4953502538791099</v>
       </c>
       <c r="F20">
-        <v>0.7619799700057328</v>
+        <v>0.6484195397212744</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.397841673867191</v>
+        <v>1.28998125352723</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3042996210159075</v>
+        <v>0.886351137763512</v>
       </c>
       <c r="N20">
-        <v>1.44897022716065</v>
+        <v>0.5969234545164941</v>
       </c>
       <c r="O20">
-        <v>2.580456667367258</v>
+        <v>1.778936525918226</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4720297897237913</v>
+        <v>1.437156626842835</v>
       </c>
       <c r="C21">
-        <v>0.06455017371138183</v>
+        <v>0.1693726445487158</v>
       </c>
       <c r="D21">
-        <v>0.03941435667330495</v>
+        <v>0.08393903609941589</v>
       </c>
       <c r="E21">
-        <v>0.2161373267239881</v>
+        <v>0.5628571003314491</v>
       </c>
       <c r="F21">
-        <v>0.7698055670632016</v>
+        <v>0.7031009186158172</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4460491683835244</v>
+        <v>1.453531930888602</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3362448426873215</v>
+        <v>1.00542102117501</v>
       </c>
       <c r="N21">
-        <v>1.429890313052695</v>
+        <v>0.5512846933401061</v>
       </c>
       <c r="O21">
-        <v>2.587588005219203</v>
+        <v>1.89203838035013</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.503023492289941</v>
+        <v>1.545186517293445</v>
       </c>
       <c r="C22">
-        <v>0.06777388091623493</v>
+        <v>0.1796855728388493</v>
       </c>
       <c r="D22">
-        <v>0.04108209599903745</v>
+        <v>0.08885132214621905</v>
       </c>
       <c r="E22">
-        <v>0.2269906132914343</v>
+        <v>0.6079637125822188</v>
       </c>
       <c r="F22">
-        <v>0.7753169126578996</v>
+        <v>0.7402588096536817</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4775309447403515</v>
+        <v>1.561002822012824</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3571990076318841</v>
+        <v>1.084277685655593</v>
       </c>
       <c r="N22">
-        <v>1.417883074047749</v>
+        <v>0.5227133676441849</v>
       </c>
       <c r="O22">
-        <v>2.593542876277354</v>
+        <v>1.970360261090207</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4864792752467224</v>
+        <v>1.487460930509314</v>
       </c>
       <c r="C23">
-        <v>0.0660548533064258</v>
+        <v>0.1741777426611151</v>
       </c>
       <c r="D23">
-        <v>0.04019297625615792</v>
+        <v>0.08622985941865835</v>
       </c>
       <c r="E23">
-        <v>0.2211885382546726</v>
+        <v>0.5837918509373239</v>
       </c>
       <c r="F23">
-        <v>0.7723390841501896</v>
+        <v>0.7202898349910782</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4607309166050868</v>
+        <v>1.503584411737933</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3460084019974943</v>
+        <v>1.042087138006082</v>
       </c>
       <c r="N23">
-        <v>1.424249199263469</v>
+        <v>0.5378435913994153</v>
       </c>
       <c r="O23">
-        <v>2.590246174757908</v>
+        <v>1.928134279294312</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4238735240286928</v>
+        <v>1.270220120845323</v>
       </c>
       <c r="C24">
-        <v>0.05951102020779331</v>
+        <v>0.1533880362299271</v>
       </c>
       <c r="D24">
-        <v>0.03680411864618094</v>
+        <v>0.07629278886841462</v>
       </c>
       <c r="E24">
-        <v>0.1994209653795096</v>
+        <v>0.494261977659562</v>
       </c>
       <c r="F24">
-        <v>0.7618587631313645</v>
+        <v>0.6475482348167532</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3970533623996459</v>
+        <v>1.287316613592111</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3037787759033534</v>
+        <v>0.8844207237171346</v>
       </c>
       <c r="N24">
-        <v>1.449289879649237</v>
+        <v>0.5976897631566498</v>
       </c>
       <c r="O24">
-        <v>2.580361943113985</v>
+        <v>1.777157677316808</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3564714194400551</v>
+        <v>1.038202036111016</v>
       </c>
       <c r="C25">
-        <v>0.05238276043010615</v>
+        <v>0.1310576947605711</v>
       </c>
       <c r="D25">
-        <v>0.03310387632460277</v>
+        <v>0.06554501345055996</v>
       </c>
       <c r="E25">
-        <v>0.1763752981699653</v>
+        <v>0.4012416157038174</v>
       </c>
       <c r="F25">
-        <v>0.752257190075035</v>
+        <v>0.574506186606456</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.328274698999337</v>
+        <v>1.055963759734482</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2585529892774545</v>
+        <v>0.71802370180243</v>
       </c>
       <c r="N25">
-        <v>1.478282736382013</v>
+        <v>0.6672691612889139</v>
       </c>
       <c r="O25">
-        <v>2.575249986083747</v>
+        <v>1.631200113463478</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_21/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8687224260170865</v>
+        <v>2.392209129916125</v>
       </c>
       <c r="C2">
-        <v>0.1146436158159219</v>
+        <v>0.7179170831234671</v>
       </c>
       <c r="D2">
-        <v>0.05759505009839216</v>
+        <v>0.2140808498899816</v>
       </c>
       <c r="E2">
-        <v>0.3351059605522906</v>
+        <v>0.2023361711934015</v>
       </c>
       <c r="F2">
-        <v>0.5246885511655819</v>
+        <v>0.9013490092129501</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0008900465473693497</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.001872945249216329</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="K2">
-        <v>0.8866656512023781</v>
+        <v>0.2722762710748619</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2406622915844423</v>
       </c>
       <c r="M2">
-        <v>0.5978508172762034</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7224602863258518</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.536200632047667</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.8220251646320946</v>
+      </c>
+      <c r="Q2">
+        <v>1.932944215172512</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7544226428997263</v>
+        <v>2.083665775511179</v>
       </c>
       <c r="C3">
-        <v>0.1035129406363779</v>
+        <v>0.626890149037564</v>
       </c>
       <c r="D3">
-        <v>0.05217940135216992</v>
+        <v>0.1914043008049191</v>
       </c>
       <c r="E3">
-        <v>0.2914403714726177</v>
+        <v>0.1808993000108003</v>
       </c>
       <c r="F3">
-        <v>0.4930795866694027</v>
+        <v>0.8370841018280899</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0002099129263439803</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0010384565883097</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K3">
-        <v>0.7723074138514789</v>
+        <v>0.2702897427687638</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2150898774439369</v>
       </c>
       <c r="M3">
-        <v>0.5175051388858165</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7621690079214734</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.478657761620525</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.8210597672632147</v>
+      </c>
+      <c r="Q3">
+        <v>1.813511416770183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6844311257684694</v>
+        <v>1.893497169711992</v>
       </c>
       <c r="C4">
-        <v>0.09666826091080338</v>
+        <v>0.5712860182179327</v>
       </c>
       <c r="D4">
-        <v>0.04883890129926272</v>
+        <v>0.1775330151037906</v>
       </c>
       <c r="E4">
-        <v>0.2651047506636317</v>
+        <v>0.167741967305151</v>
       </c>
       <c r="F4">
-        <v>0.4746359018606512</v>
+        <v>0.798166955444195</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.222823030018084E-05</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.000706059441515805</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K4">
-        <v>0.7021940078495561</v>
+        <v>0.269325071894805</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1993648120479747</v>
       </c>
       <c r="M4">
-        <v>0.4686031530827179</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.787636482890365</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.446412785930363</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.8211906983975439</v>
+      </c>
+      <c r="Q4">
+        <v>1.741725013874515</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6559449396133346</v>
+        <v>1.814678251435879</v>
       </c>
       <c r="C5">
-        <v>0.09387544516298618</v>
+        <v>0.549470651311367</v>
       </c>
       <c r="D5">
-        <v>0.04747359243617666</v>
+        <v>0.1719891573817449</v>
       </c>
       <c r="E5">
-        <v>0.2544792482286908</v>
+        <v>0.1624023812742195</v>
       </c>
       <c r="F5">
-        <v>0.4673488498467648</v>
+        <v>0.7818770055180195</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.938747152876232E-07</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0006751587377800128</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K5">
-        <v>0.6736370341820503</v>
+        <v>0.268676971241721</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1929238641733733</v>
       </c>
       <c r="M5">
-        <v>0.4487683765459423</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7982805185140549</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.434008780726884</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.8218163503085876</v>
+      </c>
+      <c r="Q5">
+        <v>1.711208027297772</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6512166727923159</v>
+        <v>1.800187797929283</v>
       </c>
       <c r="C6">
-        <v>0.09341145936152628</v>
+        <v>0.5468076660982604</v>
       </c>
       <c r="D6">
-        <v>0.04724663538463858</v>
+        <v>0.1711885933995063</v>
       </c>
       <c r="E6">
-        <v>0.2527209559909309</v>
+        <v>0.1615435264312346</v>
       </c>
       <c r="F6">
-        <v>0.466152280571329</v>
+        <v>0.7784983583815617</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>5.512076128866283E-09</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.000755770530132871</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K6">
-        <v>0.6688957524246746</v>
+        <v>0.2681870504175734</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1918237655433614</v>
       </c>
       <c r="M6">
-        <v>0.4454800295597821</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8000638019763819</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.431992429458333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.8224176107799295</v>
+      </c>
+      <c r="Q6">
+        <v>1.704174388700409</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6840468205188586</v>
+        <v>1.888621853979345</v>
       </c>
       <c r="C7">
-        <v>0.09663061160402009</v>
+        <v>0.573607842986263</v>
       </c>
       <c r="D7">
-        <v>0.04882050481617028</v>
+        <v>0.1777847516165423</v>
       </c>
       <c r="E7">
-        <v>0.2649610369715703</v>
+        <v>0.1677463526980389</v>
       </c>
       <c r="F7">
-        <v>0.4745367168028523</v>
+        <v>0.7960852387722355</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.127335708834721E-05</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.0009175635237852475</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K7">
-        <v>0.7018088327716896</v>
+        <v>0.2682621920907451</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1991960046905774</v>
       </c>
       <c r="M7">
-        <v>0.4683352964082488</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7877789650894975</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.446242572281292</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.8225430243585379</v>
+      </c>
+      <c r="Q7">
+        <v>1.735879613853172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8292654177869849</v>
+        <v>2.280868682878577</v>
       </c>
       <c r="C8">
-        <v>0.1108073310439863</v>
+        <v>0.6899575997958323</v>
       </c>
       <c r="D8">
-        <v>0.05573078525473107</v>
+        <v>0.2066850008651357</v>
       </c>
       <c r="E8">
-        <v>0.3199433464654859</v>
+        <v>0.1950448564226264</v>
       </c>
       <c r="F8">
-        <v>0.513581229321133</v>
+        <v>0.8766026270110103</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0006029566540259879</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.001797672818560692</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K8">
-        <v>0.8472066454252456</v>
+        <v>0.2701449451943141</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2317397394895693</v>
       </c>
       <c r="M8">
-        <v>0.5700488869715841</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7359219255178626</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.515694470234394</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.8233841684460685</v>
+      </c>
+      <c r="Q8">
+        <v>1.884223895434616</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.116107094444715</v>
+        <v>3.0515756892529</v>
       </c>
       <c r="C9">
-        <v>0.1385720209504768</v>
+        <v>0.916059301129593</v>
       </c>
       <c r="D9">
-        <v>0.06917035195292698</v>
+        <v>0.263268171802892</v>
       </c>
       <c r="E9">
-        <v>0.4321656006515084</v>
+        <v>0.2485678484643472</v>
       </c>
       <c r="F9">
-        <v>0.5984502790279578</v>
+        <v>1.042640678589535</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.003722477177631522</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.004768126064246481</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K9">
-        <v>1.133694093514805</v>
+        <v>0.2778941891975393</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2956341180646831</v>
       </c>
       <c r="M9">
-        <v>0.7736590903328135</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6431929361253648</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1.678297873970394</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.8285379754571665</v>
+      </c>
+      <c r="Q9">
+        <v>2.198444221061209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.328970988818668</v>
+        <v>3.600346913031444</v>
       </c>
       <c r="C10">
-        <v>0.1590206965695131</v>
+        <v>1.078603696658263</v>
       </c>
       <c r="D10">
-        <v>0.07899166627120735</v>
+        <v>0.2984511800439122</v>
       </c>
       <c r="E10">
-        <v>0.5182477052411798</v>
+        <v>0.2776817881720817</v>
       </c>
       <c r="F10">
-        <v>0.6668304964870941</v>
+        <v>1.150939421198174</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.007355866901058938</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.008118749366207823</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K10">
-        <v>1.345834686498705</v>
+        <v>0.2814929318819068</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3274456348269297</v>
       </c>
       <c r="M10">
-        <v>0.9268853688618321</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5810324574178054</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1.816703768976652</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.8422769299146893</v>
+      </c>
+      <c r="Q10">
+        <v>2.407571458413258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.426475321574657</v>
+        <v>3.730884381891201</v>
       </c>
       <c r="C11">
-        <v>0.1683516953902284</v>
+        <v>1.0952494492646</v>
       </c>
       <c r="D11">
-        <v>0.08345184132979711</v>
+        <v>0.2567884676673202</v>
       </c>
       <c r="E11">
-        <v>0.5584275630336037</v>
+        <v>0.2078326634869541</v>
       </c>
       <c r="F11">
-        <v>0.6994771394469268</v>
+        <v>1.057913131346595</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02575588536479145</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.00955926888335501</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K11">
-        <v>1.442902131832227</v>
+        <v>0.2554471575716235</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2246795324437372</v>
       </c>
       <c r="M11">
-        <v>0.9976476463619477</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5541700469855773</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>1.884459695917542</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.899724599056654</v>
+      </c>
+      <c r="Q11">
+        <v>2.245920202886111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.463512376119326</v>
+        <v>3.729485426764484</v>
       </c>
       <c r="C12">
-        <v>0.1718907989485245</v>
+        <v>1.070131167755619</v>
       </c>
       <c r="D12">
-        <v>0.08514000678646738</v>
+        <v>0.2168230278402916</v>
       </c>
       <c r="E12">
-        <v>0.573810262835778</v>
+        <v>0.1528073331689939</v>
       </c>
       <c r="F12">
-        <v>0.7120815989578517</v>
+        <v>0.9620682431484937</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06388250913210669</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.009671949405985814</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K12">
-        <v>1.479757627271596</v>
+        <v>0.2349732172901433</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1515785007656234</v>
       </c>
       <c r="M12">
-        <v>1.024619675306049</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5442123736119022</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>1.910867442305033</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0.946407610996971</v>
+      </c>
+      <c r="Q12">
+        <v>2.07633887123373</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.455530404584863</v>
+        <v>3.620454713444985</v>
       </c>
       <c r="C13">
-        <v>0.1711283125251981</v>
+        <v>1.015807258227653</v>
       </c>
       <c r="D13">
-        <v>0.08477646123720461</v>
+        <v>0.1766003578330952</v>
       </c>
       <c r="E13">
-        <v>0.5704895270356474</v>
+        <v>0.1063571847286298</v>
       </c>
       <c r="F13">
-        <v>0.7093559042657347</v>
+        <v>0.8559351588815929</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1187335348830203</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.009055910234962106</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K13">
-        <v>1.471815484484608</v>
+        <v>0.2159073225808505</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.09713777117338651</v>
       </c>
       <c r="M13">
-        <v>1.018802546555946</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5463472095606257</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>1.905145689681945</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0.9887705160190876</v>
+      </c>
+      <c r="Q13">
+        <v>1.882561759232857</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.429519985728234</v>
+        <v>3.494684302168707</v>
       </c>
       <c r="C14">
-        <v>0.1686427370429016</v>
+        <v>0.9656722532278366</v>
       </c>
       <c r="D14">
-        <v>0.08359074216517115</v>
+        <v>0.1490891816176969</v>
       </c>
       <c r="E14">
-        <v>0.5596896260760786</v>
+        <v>0.0793620571784821</v>
       </c>
       <c r="F14">
-        <v>0.7005091459846255</v>
+        <v>0.7776448574422261</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1673454893103923</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.008394260807654597</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K14">
-        <v>1.445932185598991</v>
+        <v>0.2031612583807529</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.07041801706812834</v>
       </c>
       <c r="M14">
-        <v>0.9998629840914575</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5533464570331876</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>1.886616881820885</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>1.017037459679685</v>
+      </c>
+      <c r="Q14">
+        <v>1.736352217647124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.413603284472913</v>
+        <v>3.440010375851159</v>
       </c>
       <c r="C15">
-        <v>0.1671210342216227</v>
+        <v>0.9484029737778599</v>
       </c>
       <c r="D15">
-        <v>0.08286435884195953</v>
+        <v>0.1420783721118966</v>
       </c>
       <c r="E15">
-        <v>0.5530968270791377</v>
+        <v>0.07336632911309415</v>
       </c>
       <c r="F15">
-        <v>0.695122382650851</v>
+        <v>0.7556344978984697</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1795531929811744</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.008184768569453382</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K15">
-        <v>1.430091231483487</v>
+        <v>0.1999860934081354</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.06530685309199313</v>
       </c>
       <c r="M15">
-        <v>0.9882855953963201</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.557661980859951</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>1.875367005803781</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>1.023180876434651</v>
+      </c>
+      <c r="Q15">
+        <v>1.693788318613031</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.322613848185938</v>
+        <v>3.226274710551593</v>
       </c>
       <c r="C16">
-        <v>0.1584115999189351</v>
+        <v>0.8923491401012029</v>
       </c>
       <c r="D16">
-        <v>0.0787000545507297</v>
+        <v>0.1364318820339747</v>
       </c>
       <c r="E16">
-        <v>0.5156441246625434</v>
+        <v>0.07177311038658019</v>
       </c>
       <c r="F16">
-        <v>0.664729665026087</v>
+        <v>0.731618837306641</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1654563480359599</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.006941732463650929</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K16">
-        <v>1.339503875301801</v>
+        <v>0.2017202906041788</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.06447167505853102</v>
       </c>
       <c r="M16">
-        <v>0.922284171138422</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5828173777771362</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>1.812377316689549</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>1.006560625208735</v>
+      </c>
+      <c r="Q16">
+        <v>1.642682387209192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.266978956291467</v>
+        <v>3.128916860872323</v>
       </c>
       <c r="C17">
-        <v>0.1530770572139204</v>
+        <v>0.8759776697067139</v>
       </c>
       <c r="D17">
-        <v>0.07614364153487685</v>
+        <v>0.1462531195661541</v>
       </c>
       <c r="E17">
-        <v>0.4929437042455547</v>
+        <v>0.08373534655240533</v>
       </c>
       <c r="F17">
-        <v>0.6464932540636141</v>
+        <v>0.7541402456597268</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1270266174118575</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.006371938219151829</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K17">
-        <v>1.284087592136984</v>
+        <v>0.2097299031983226</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.07591135136887672</v>
       </c>
       <c r="M17">
-        <v>0.8820818550768834</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5986193916178699</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>1.775004895945131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0.9791862385577303</v>
+      </c>
+      <c r="Q17">
+        <v>1.680324911933184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.235041303700825</v>
+        <v>3.123117370289378</v>
       </c>
       <c r="C18">
-        <v>0.1500113812839317</v>
+        <v>0.8896400448688553</v>
       </c>
       <c r="D18">
-        <v>0.07467252770080535</v>
+        <v>0.1720205010050648</v>
       </c>
       <c r="E18">
-        <v>0.4799817560825161</v>
+        <v>0.1138517943118522</v>
       </c>
       <c r="F18">
-        <v>0.6361478120453299</v>
+        <v>0.822264418369997</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07417727819641584</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.006016892651119932</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K18">
-        <v>1.252265562994609</v>
+        <v>0.2251150050894744</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1092831112722052</v>
       </c>
       <c r="M18">
-        <v>0.8590566889928226</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6078407398215599</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>1.753956655956728</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0.939183253685286</v>
+      </c>
+      <c r="Q18">
+        <v>1.804366379937107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.224237904488774</v>
+        <v>3.183825014674369</v>
       </c>
       <c r="C19">
-        <v>0.1489738005915626</v>
+        <v>0.931652090530406</v>
       </c>
       <c r="D19">
-        <v>0.07417429962404753</v>
+        <v>0.2120380925654928</v>
       </c>
       <c r="E19">
-        <v>0.4756087313373811</v>
+        <v>0.1644292969389376</v>
       </c>
       <c r="F19">
-        <v>0.6326690983057333</v>
+        <v>0.9225489666959845</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02960629477116328</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.00634931530719296</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K19">
-        <v>1.241499593118078</v>
+        <v>0.2444534677911996</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1730557182025549</v>
       </c>
       <c r="M19">
-        <v>0.8512769304047865</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6109853524159696</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>1.746905147199328</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.8972691679678348</v>
+      </c>
+      <c r="Q19">
+        <v>1.98458982995578</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.272894837758287</v>
+        <v>3.443643953542846</v>
       </c>
       <c r="C20">
-        <v>0.1536446474948008</v>
+        <v>1.043855885468588</v>
       </c>
       <c r="D20">
-        <v>0.07641584989038108</v>
+        <v>0.2899293513453927</v>
       </c>
       <c r="E20">
-        <v>0.4953502538791099</v>
+        <v>0.2698319382159298</v>
       </c>
       <c r="F20">
-        <v>0.6484195397212744</v>
+        <v>1.11574439377614</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.006257165743512427</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.007814074443748709</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K20">
-        <v>1.28998125352723</v>
+        <v>0.2770717729899452</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3181943443102</v>
       </c>
       <c r="M20">
-        <v>0.886351137763512</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5969234545164941</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>1.778936525918226</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.8432910061111585</v>
+      </c>
+      <c r="Q20">
+        <v>2.33375246892183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.437156626842835</v>
+        <v>3.886241757562402</v>
       </c>
       <c r="C21">
-        <v>0.1693726445487158</v>
+        <v>1.178698715071221</v>
       </c>
       <c r="D21">
-        <v>0.08393903609941589</v>
+        <v>0.3276783582900435</v>
       </c>
       <c r="E21">
-        <v>0.5628571003314491</v>
+        <v>0.3083989699358369</v>
       </c>
       <c r="F21">
-        <v>0.7031009186158172</v>
+        <v>1.226851897918806</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.009692505788184126</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.01077626735684145</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K21">
-        <v>1.453531930888602</v>
+        <v>0.2859232601952577</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3662746111926509</v>
       </c>
       <c r="M21">
-        <v>1.00542102117501</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5512846933401061</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>1.89203838035013</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.8464318557565065</v>
+      </c>
+      <c r="Q21">
+        <v>2.546802709117316</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.545186517293445</v>
+        <v>4.173868406420866</v>
       </c>
       <c r="C22">
-        <v>0.1796855728388493</v>
+        <v>1.260297256309627</v>
       </c>
       <c r="D22">
-        <v>0.08885132214621905</v>
+        <v>0.3484787640829552</v>
       </c>
       <c r="E22">
-        <v>0.6079637125822188</v>
+        <v>0.3282595254494396</v>
       </c>
       <c r="F22">
-        <v>0.7402588096536817</v>
+        <v>1.294477103821848</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.01222863035115396</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.01268188500167255</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K22">
-        <v>1.561002822012824</v>
+        <v>0.29182682026509</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.390141567447202</v>
       </c>
       <c r="M22">
-        <v>1.084277685655593</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5227133676441849</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>1.970360261090207</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.8499688268949654</v>
+      </c>
+      <c r="Q22">
+        <v>2.680795417379329</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.487460930509314</v>
+        <v>4.025058168147325</v>
       </c>
       <c r="C23">
-        <v>0.1741777426611151</v>
+        <v>1.213497229678069</v>
       </c>
       <c r="D23">
-        <v>0.08622985941865835</v>
+        <v>0.3369701750148835</v>
       </c>
       <c r="E23">
-        <v>0.5837918509373239</v>
+        <v>0.3175573077249965</v>
       </c>
       <c r="F23">
-        <v>0.7202898349910782</v>
+        <v>1.260507926387291</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.01085264954674114</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.01138712567925015</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K23">
-        <v>1.503584411737933</v>
+        <v>0.2898671978563812</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3774928689368977</v>
       </c>
       <c r="M23">
-        <v>1.042087138006082</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5378435913994153</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>1.928134279294312</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.8461839816954324</v>
+      </c>
+      <c r="Q23">
+        <v>2.615478632591504</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.270220120845323</v>
+        <v>3.453613327410494</v>
       </c>
       <c r="C24">
-        <v>0.1533880362299271</v>
+        <v>1.042409596447129</v>
       </c>
       <c r="D24">
-        <v>0.07629278886841462</v>
+        <v>0.2942387567723017</v>
       </c>
       <c r="E24">
-        <v>0.494261977659562</v>
+        <v>0.2773387462311732</v>
       </c>
       <c r="F24">
-        <v>0.6475482348167532</v>
+        <v>1.130299976857899</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.006292172136856011</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.007409420601161898</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K24">
-        <v>1.287316613592111</v>
+        <v>0.2812767202267246</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3296005671058708</v>
       </c>
       <c r="M24">
-        <v>0.8844207237171346</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5976897631566498</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>1.777157677316808</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.8364601086933305</v>
+      </c>
+      <c r="Q24">
+        <v>2.363233603251331</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.038202036111016</v>
+        <v>2.836548021513522</v>
       </c>
       <c r="C25">
-        <v>0.1310576947605711</v>
+        <v>0.8593728935617548</v>
       </c>
       <c r="D25">
-        <v>0.06554501345055996</v>
+        <v>0.2484943606701364</v>
       </c>
       <c r="E25">
-        <v>0.4012416157038174</v>
+        <v>0.2342029529472001</v>
       </c>
       <c r="F25">
-        <v>0.574506186606456</v>
+        <v>0.993752822328716</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.002637552467646409</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.004139523023566127</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K25">
-        <v>1.055963759734482</v>
+        <v>0.2736514746151641</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2781905350424836</v>
       </c>
       <c r="M25">
-        <v>0.71802370180243</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6672691612889139</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1.631200113463478</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.8290939924505949</v>
+      </c>
+      <c r="Q25">
+        <v>2.101939046747276</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_21/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.392209129916125</v>
+        <v>2.32477304000605</v>
       </c>
       <c r="C2">
-        <v>0.7179170831234671</v>
+        <v>0.7645861647988283</v>
       </c>
       <c r="D2">
-        <v>0.2140808498899816</v>
+        <v>0.2215417912540261</v>
       </c>
       <c r="E2">
-        <v>0.2023361711934015</v>
+        <v>0.2048574351818715</v>
       </c>
       <c r="F2">
-        <v>0.9013490092129501</v>
+        <v>0.8627738710386694</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0008900465473693497</v>
+        <v>0.0009826937234103106</v>
       </c>
       <c r="I2">
-        <v>0.001872945249216329</v>
+        <v>0.002280181520553981</v>
       </c>
       <c r="J2">
-        <v>0.02672462365074526</v>
+        <v>0.07607150459155762</v>
       </c>
       <c r="K2">
-        <v>0.2722762710748619</v>
+        <v>0.2471958290803009</v>
       </c>
       <c r="L2">
-        <v>0.2406622915844423</v>
+        <v>0.1440650754270258</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.05487963220371483</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2402518176815036</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8220251646320946</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.932944215172512</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.8400671783308766</v>
+      </c>
+      <c r="S2">
+        <v>1.817913411976747</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.083665775511179</v>
+        <v>2.031196001998524</v>
       </c>
       <c r="C3">
-        <v>0.626890149037564</v>
+        <v>0.6626671514702593</v>
       </c>
       <c r="D3">
-        <v>0.1914043008049191</v>
+        <v>0.1977912072219965</v>
       </c>
       <c r="E3">
-        <v>0.1808993000108003</v>
+        <v>0.1832657918214196</v>
       </c>
       <c r="F3">
-        <v>0.8370841018280899</v>
+        <v>0.8044433225086323</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0002099129263439803</v>
+        <v>0.0002730640996864153</v>
       </c>
       <c r="I3">
-        <v>0.0010384565883097</v>
+        <v>0.001413544081399376</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142331</v>
       </c>
       <c r="K3">
-        <v>0.2702897427687638</v>
+        <v>0.2476281918293957</v>
       </c>
       <c r="L3">
-        <v>0.2150898774439369</v>
+        <v>0.1485470047430582</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.05173000426348118</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.2151292470032331</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8210597672632147</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.813511416770183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.83111134583487</v>
+      </c>
+      <c r="S3">
+        <v>1.714981471240463</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.893497169711992</v>
+        <v>1.849910645999643</v>
       </c>
       <c r="C4">
-        <v>0.5712860182179327</v>
+        <v>0.6005642651017808</v>
       </c>
       <c r="D4">
-        <v>0.1775330151037906</v>
+        <v>0.1832818326332841</v>
       </c>
       <c r="E4">
-        <v>0.167741967305151</v>
+        <v>0.1700164727567461</v>
       </c>
       <c r="F4">
-        <v>0.798166955444195</v>
+        <v>0.7690285915955144</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2.222823030018084E-05</v>
+        <v>5.011631881046696E-05</v>
       </c>
       <c r="I4">
-        <v>0.000706059441515805</v>
+        <v>0.001033494235687105</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153714</v>
       </c>
       <c r="K4">
-        <v>0.269325071894805</v>
+        <v>0.2480669189280356</v>
       </c>
       <c r="L4">
-        <v>0.1993648120479747</v>
+        <v>0.1513810676798926</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.05035345397812385</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.199672182708369</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8211906983975439</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.741725013874515</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.8264409821943133</v>
+      </c>
+      <c r="S4">
+        <v>1.652898304506891</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.814678251435879</v>
+        <v>1.774655608390844</v>
       </c>
       <c r="C5">
-        <v>0.549470651311367</v>
+        <v>0.5761681361443891</v>
       </c>
       <c r="D5">
-        <v>0.1719891573817449</v>
+        <v>0.177484332514652</v>
       </c>
       <c r="E5">
-        <v>0.1624023812742195</v>
+        <v>0.1646403652819757</v>
       </c>
       <c r="F5">
-        <v>0.7818770055180195</v>
+        <v>0.7541444505781598</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3.938747152876232E-07</v>
+        <v>9.786760260421801E-06</v>
       </c>
       <c r="I5">
-        <v>0.0006751587377800128</v>
+        <v>0.0009887312291656514</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153728</v>
       </c>
       <c r="K5">
-        <v>0.268676971241721</v>
+        <v>0.2479915539442707</v>
       </c>
       <c r="L5">
-        <v>0.1929238641733733</v>
+        <v>0.1524038675522199</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.04985927259493828</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1933388214913521</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8218163503085876</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.711208027297772</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.8251644729249463</v>
+      </c>
+      <c r="S5">
+        <v>1.6262816990033</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.800187797929283</v>
+        <v>1.760774880660477</v>
       </c>
       <c r="C6">
-        <v>0.5468076660982604</v>
+        <v>0.5731049442475467</v>
       </c>
       <c r="D6">
-        <v>0.1711885933995063</v>
+        <v>0.1766431852422414</v>
       </c>
       <c r="E6">
-        <v>0.1615435264312346</v>
+        <v>0.1637755903573144</v>
       </c>
       <c r="F6">
-        <v>0.7784983583815617</v>
+        <v>0.751013048430238</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5.512076128866283E-09</v>
+        <v>6.000933919780849E-06</v>
       </c>
       <c r="I6">
-        <v>0.000755770530132871</v>
+        <v>0.001082995015055488</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142324</v>
       </c>
       <c r="K6">
-        <v>0.2681870504175734</v>
+        <v>0.2476211546996474</v>
       </c>
       <c r="L6">
-        <v>0.1918237655433614</v>
+        <v>0.1523891938047832</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.04969748999230994</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1922567405925619</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8224176107799295</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.704174388700409</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.8254857861420888</v>
+      </c>
+      <c r="S6">
+        <v>1.619951606736038</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.888621853979345</v>
+        <v>1.845147812774599</v>
       </c>
       <c r="C7">
-        <v>0.573607842986263</v>
+        <v>0.6029246423765642</v>
       </c>
       <c r="D7">
-        <v>0.1777847516165423</v>
+        <v>0.1835336247632711</v>
       </c>
       <c r="E7">
-        <v>0.1677463526980389</v>
+        <v>0.1700206295594171</v>
       </c>
       <c r="F7">
-        <v>0.7960852387722355</v>
+        <v>0.7670113585359104</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2.127335708834721E-05</v>
+        <v>4.871840268427796E-05</v>
       </c>
       <c r="I7">
-        <v>0.0009175635237852475</v>
+        <v>0.001287055780058388</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.0759357156874878</v>
       </c>
       <c r="K7">
-        <v>0.2682621920907451</v>
+        <v>0.2470853282681489</v>
       </c>
       <c r="L7">
-        <v>0.1991960046905774</v>
+        <v>0.1509032684160942</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.05009272598115899</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1995055928626073</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8225430243585379</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.735879613853172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.8278662223412567</v>
+      </c>
+      <c r="S7">
+        <v>1.647283851816923</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.280868682878577</v>
+        <v>2.218756144120448</v>
       </c>
       <c r="C8">
-        <v>0.6899575997958323</v>
+        <v>0.7329443218962126</v>
       </c>
       <c r="D8">
-        <v>0.2066850008651357</v>
+        <v>0.2137766511245616</v>
       </c>
       <c r="E8">
-        <v>0.1950448564226264</v>
+        <v>0.1975126951259654</v>
       </c>
       <c r="F8">
-        <v>0.8766026270110103</v>
+        <v>0.8401725257449897</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0006029566540259879</v>
+        <v>0.000689036782831387</v>
       </c>
       <c r="I8">
-        <v>0.001797672818560692</v>
+        <v>0.002253272175126497</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284014</v>
       </c>
       <c r="K8">
-        <v>0.2701449451943141</v>
+        <v>0.2460277515546814</v>
       </c>
       <c r="L8">
-        <v>0.2317397394895693</v>
+        <v>0.1450087291507067</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.05328903149284336</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2314874824694755</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8233841684460685</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.884223895434616</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.8388003317601544</v>
+      </c>
+      <c r="S8">
+        <v>1.775243836647576</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.0515756892529</v>
+        <v>2.950216031234447</v>
       </c>
       <c r="C9">
-        <v>0.916059301129593</v>
+        <v>0.9872295919087435</v>
       </c>
       <c r="D9">
-        <v>0.263268171802892</v>
+        <v>0.2731534941933944</v>
       </c>
       <c r="E9">
-        <v>0.2485678484643472</v>
+        <v>0.2514325580383527</v>
       </c>
       <c r="F9">
-        <v>1.042640678589535</v>
+        <v>0.9905092410695033</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.003722477177631522</v>
+        <v>0.003775074226885611</v>
       </c>
       <c r="I9">
-        <v>0.004768126064246481</v>
+        <v>0.005079083742919543</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>0.2778941891975393</v>
+        <v>0.2471757442593727</v>
       </c>
       <c r="L9">
-        <v>0.2956341180646831</v>
+        <v>0.1348773655202784</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.06460514342528967</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.294202205458717</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8285379754571665</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>2.198444221061209</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.8643597088680366</v>
+      </c>
+      <c r="S9">
+        <v>2.045543018176545</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.600346913031444</v>
+        <v>3.469890248526269</v>
       </c>
       <c r="C10">
-        <v>1.078603696658263</v>
+        <v>1.170348845668173</v>
       </c>
       <c r="D10">
-        <v>0.2984511800439122</v>
+        <v>0.3102466578729377</v>
       </c>
       <c r="E10">
-        <v>0.2776817881720817</v>
+        <v>0.2807551350205202</v>
       </c>
       <c r="F10">
-        <v>1.150939421198174</v>
+        <v>1.08756085831115</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.007355866901058938</v>
+        <v>0.007280080285863022</v>
       </c>
       <c r="I10">
-        <v>0.008118749366207823</v>
+        <v>0.008173682275570471</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>0.2814929318819068</v>
+        <v>0.2461241189262573</v>
       </c>
       <c r="L10">
-        <v>0.3274456348269297</v>
+        <v>0.1267905863520475</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.07455223948498713</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.3251719426685753</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8422769299146893</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>2.407571458413258</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.8936195950728063</v>
+      </c>
+      <c r="S10">
+        <v>2.222965253881625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.730884381891201</v>
+        <v>3.599660943755453</v>
       </c>
       <c r="C11">
-        <v>1.0952494492646</v>
+        <v>1.186429020668243</v>
       </c>
       <c r="D11">
-        <v>0.2567884676673202</v>
+        <v>0.2673709872583743</v>
       </c>
       <c r="E11">
-        <v>0.2078326634869541</v>
+        <v>0.2102800365008903</v>
       </c>
       <c r="F11">
-        <v>1.057913131346595</v>
+        <v>0.9985298115364287</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.02575588536479145</v>
+        <v>0.02564603250231556</v>
       </c>
       <c r="I11">
-        <v>0.00955926888335501</v>
+        <v>0.009615643044835309</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>0.2554471575716235</v>
+        <v>0.2232150378515847</v>
       </c>
       <c r="L11">
-        <v>0.2246795324437372</v>
+        <v>0.115497565520231</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.06994863071446744</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2227611275035954</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.899724599056654</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>2.245920202886111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0.9578229920011978</v>
+      </c>
+      <c r="S11">
+        <v>2.07156217384204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.729485426764484</v>
+        <v>3.603923935425257</v>
       </c>
       <c r="C12">
-        <v>1.070131167755619</v>
+        <v>1.156203796396483</v>
       </c>
       <c r="D12">
-        <v>0.2168230278402916</v>
+        <v>0.2260198515942875</v>
       </c>
       <c r="E12">
-        <v>0.1528073331689939</v>
+        <v>0.1547099785787012</v>
       </c>
       <c r="F12">
-        <v>0.9620682431484937</v>
+        <v>0.9082358398356547</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.06388250913210669</v>
+        <v>0.06377616080114024</v>
       </c>
       <c r="I12">
-        <v>0.009671949405985814</v>
+        <v>0.009716696077463283</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>0.2349732172901433</v>
+        <v>0.2061274890914113</v>
       </c>
       <c r="L12">
-        <v>0.1515785007656234</v>
+        <v>0.108615972191787</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.06440878945070594</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1501052501269129</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.946407610996971</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>2.07633887123373</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1.006218140292361</v>
+      </c>
+      <c r="S12">
+        <v>1.916781846724689</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.620454713444985</v>
+        <v>3.505946759691028</v>
       </c>
       <c r="C13">
-        <v>1.015807258227653</v>
+        <v>1.093233669759002</v>
       </c>
       <c r="D13">
-        <v>0.1766003578330952</v>
+        <v>0.1842458472368094</v>
       </c>
       <c r="E13">
-        <v>0.1063571847286298</v>
+        <v>0.1077561356483514</v>
       </c>
       <c r="F13">
-        <v>0.8559351588815929</v>
+        <v>0.8091280807119006</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1187335348830203</v>
+        <v>0.1186574117758141</v>
       </c>
       <c r="I13">
-        <v>0.009055910234962106</v>
+        <v>0.009156759233771794</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.1026584643119293</v>
       </c>
       <c r="K13">
-        <v>0.2159073225808505</v>
+        <v>0.1909331922906183</v>
       </c>
       <c r="L13">
-        <v>0.09713777117338651</v>
+        <v>0.1037775212684107</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.05741057363952962</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.09616945081278772</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.9887705160190876</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.882561759232857</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1.046622269311754</v>
+      </c>
+      <c r="S13">
+        <v>1.742257885934634</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.494684302168707</v>
+        <v>3.390272429985203</v>
       </c>
       <c r="C14">
-        <v>0.9656722532278366</v>
+        <v>1.035575641123643</v>
       </c>
       <c r="D14">
-        <v>0.1490891816176969</v>
+        <v>0.1556104586512674</v>
       </c>
       <c r="E14">
-        <v>0.0793620571784821</v>
+        <v>0.08043834100377723</v>
       </c>
       <c r="F14">
-        <v>0.7776448574422261</v>
+        <v>0.7362946316686276</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1673454893103923</v>
+        <v>0.1672990081688823</v>
       </c>
       <c r="I14">
-        <v>0.008394260807654597</v>
+        <v>0.008574947149966761</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>0.2031612583807529</v>
+        <v>0.1810644772417795</v>
       </c>
       <c r="L14">
-        <v>0.07041801706812834</v>
+        <v>0.101139750411777</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.05197038612697114</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.0698073800112553</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>1.017037459679685</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.736352217647124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1.071808984890538</v>
+      </c>
+      <c r="S14">
+        <v>1.611251700298055</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.440010375851159</v>
+        <v>3.33917060547941</v>
       </c>
       <c r="C15">
-        <v>0.9484029737778599</v>
+        <v>1.01579147433003</v>
       </c>
       <c r="D15">
-        <v>0.1420783721118966</v>
+        <v>0.1482930099141271</v>
       </c>
       <c r="E15">
-        <v>0.07336632911309415</v>
+        <v>0.07437138249319197</v>
       </c>
       <c r="F15">
-        <v>0.7556344978984697</v>
+        <v>0.7159293795842743</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1795531929811744</v>
+        <v>0.1795187182839015</v>
       </c>
       <c r="I15">
-        <v>0.008184768569453382</v>
+        <v>0.008419775067314283</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657407966</v>
       </c>
       <c r="K15">
-        <v>0.1999860934081354</v>
+        <v>0.1787200226972168</v>
       </c>
       <c r="L15">
-        <v>0.06530685309199313</v>
+        <v>0.100732025935466</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.05028221602399441</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.06479553366866142</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>1.023180876434651</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.693788318613031</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1.076515004488712</v>
+      </c>
+      <c r="S15">
+        <v>1.573362975342434</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.226274710551593</v>
+        <v>3.135542576260434</v>
       </c>
       <c r="C16">
-        <v>0.8923491401012029</v>
+        <v>0.9529983279089436</v>
       </c>
       <c r="D16">
-        <v>0.1364318820339747</v>
+        <v>0.1422636769830774</v>
       </c>
       <c r="E16">
-        <v>0.07177311038658019</v>
+        <v>0.07282207251066097</v>
       </c>
       <c r="F16">
-        <v>0.731618837306641</v>
+        <v>0.6948890344724106</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1654563480359599</v>
+        <v>0.1654662781004106</v>
       </c>
       <c r="I16">
-        <v>0.006941732463650929</v>
+        <v>0.007317806762344503</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926787475</v>
       </c>
       <c r="K16">
-        <v>0.2017202906041788</v>
+        <v>0.1814847931142687</v>
       </c>
       <c r="L16">
-        <v>0.06447167505853102</v>
+        <v>0.1038351993961815</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.04773433233629909</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.06411766107089356</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>1.006560625208735</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.642682387209192</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>1.053387590091774</v>
+      </c>
+      <c r="S16">
+        <v>1.531061640702887</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.128916860872323</v>
+        <v>3.040593503456421</v>
       </c>
       <c r="C17">
-        <v>0.8759776697067139</v>
+        <v>0.9354038017403354</v>
       </c>
       <c r="D17">
-        <v>0.1462531195661541</v>
+        <v>0.1523562613075313</v>
       </c>
       <c r="E17">
-        <v>0.08373534655240533</v>
+        <v>0.08497889054504526</v>
       </c>
       <c r="F17">
-        <v>0.7541402456597268</v>
+        <v>0.7169126136585859</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1270266174118575</v>
+        <v>0.1270536994840654</v>
       </c>
       <c r="I17">
-        <v>0.006371938219151829</v>
+        <v>0.00681414126355584</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234516</v>
       </c>
       <c r="K17">
-        <v>0.2097299031983226</v>
+        <v>0.1888216985571454</v>
       </c>
       <c r="L17">
-        <v>0.07591135136887672</v>
+        <v>0.1078352519846657</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.04853231625168242</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.07551294149075005</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.9791862385577303</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.680324911933184</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>1.022780699479043</v>
+      </c>
+      <c r="S17">
+        <v>1.567644787040479</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.123117370289378</v>
+        <v>3.030942538318243</v>
       </c>
       <c r="C18">
-        <v>0.8896400448688553</v>
+        <v>0.9523439860946326</v>
       </c>
       <c r="D18">
-        <v>0.1720205010050648</v>
+        <v>0.179016183897275</v>
       </c>
       <c r="E18">
-        <v>0.1138517943118522</v>
+        <v>0.1154589384333278</v>
       </c>
       <c r="F18">
-        <v>0.822264418369997</v>
+        <v>0.7813909650099617</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07417727819641584</v>
+        <v>0.07420784733321995</v>
       </c>
       <c r="I18">
-        <v>0.006016892651119932</v>
+        <v>0.00642755711594134</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.07595859146309314</v>
       </c>
       <c r="K18">
-        <v>0.2251150050894744</v>
+        <v>0.2018806936830337</v>
       </c>
       <c r="L18">
-        <v>0.1092831112722052</v>
+        <v>0.1135246044449865</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.05243026077395285</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1086460346036233</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.939183253685286</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.804366379937107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0.9816635703195544</v>
+      </c>
+      <c r="S18">
+        <v>1.681755395780669</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.183825014674369</v>
+        <v>3.08318738938226</v>
       </c>
       <c r="C19">
-        <v>0.931652090530406</v>
+        <v>1.001289202902683</v>
       </c>
       <c r="D19">
-        <v>0.2120380925654928</v>
+        <v>0.220447923141279</v>
       </c>
       <c r="E19">
-        <v>0.1644292969389376</v>
+        <v>0.1665441518579875</v>
       </c>
       <c r="F19">
-        <v>0.9225489666959845</v>
+        <v>0.8756059613564986</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02960629477116328</v>
+        <v>0.02962999095409913</v>
       </c>
       <c r="I19">
-        <v>0.00634931530719296</v>
+        <v>0.006763527956598736</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.0759263476844998</v>
       </c>
       <c r="K19">
-        <v>0.2444534677911996</v>
+        <v>0.2177421682465344</v>
       </c>
       <c r="L19">
-        <v>0.1730557182025549</v>
+        <v>0.1198189071025411</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.05818390989263378</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1719997222615675</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.8972691679678348</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.98458982995578</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.9402821641464953</v>
+      </c>
+      <c r="S19">
+        <v>1.845438834802735</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.443643953542846</v>
+        <v>3.32130362094199</v>
       </c>
       <c r="C20">
-        <v>1.043855885468588</v>
+        <v>1.130421112298848</v>
       </c>
       <c r="D20">
-        <v>0.2899293513453927</v>
+        <v>0.3012247917577042</v>
       </c>
       <c r="E20">
-        <v>0.2698319382159298</v>
+        <v>0.2728494223831888</v>
       </c>
       <c r="F20">
-        <v>1.11574439377614</v>
+        <v>1.055615991793417</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.006257165743512427</v>
+        <v>0.006223639924796132</v>
       </c>
       <c r="I20">
-        <v>0.007814074443748709</v>
+        <v>0.008108876155104916</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823835525</v>
       </c>
       <c r="K20">
-        <v>0.2770717729899452</v>
+        <v>0.2433077542111235</v>
       </c>
       <c r="L20">
-        <v>0.3181943443102</v>
+        <v>0.1277653389026128</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.07057167194519565</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.3161526407727848</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8432910061111585</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>2.33375246892183</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.8909653107806861</v>
+      </c>
+      <c r="S20">
+        <v>2.158543300557994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.886241757562402</v>
+        <v>3.738696174170627</v>
       </c>
       <c r="C21">
-        <v>1.178698715071221</v>
+        <v>1.283146580610207</v>
       </c>
       <c r="D21">
-        <v>0.3276783582900435</v>
+        <v>0.3408460208590469</v>
       </c>
       <c r="E21">
-        <v>0.3083989699358369</v>
+        <v>0.3117055244327886</v>
       </c>
       <c r="F21">
-        <v>1.226851897918806</v>
+        <v>1.156149970607871</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.009692505788184126</v>
+        <v>0.009513065343354839</v>
       </c>
       <c r="I21">
-        <v>0.01077626735684145</v>
+        <v>0.01076427891847498</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752018</v>
       </c>
       <c r="K21">
-        <v>0.2859232601952577</v>
+        <v>0.2474598097710121</v>
       </c>
       <c r="L21">
-        <v>0.3662746111926509</v>
+        <v>0.1234464998301092</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.08090473658860731</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.363429656643504</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.8464318557565065</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>2.546802709117316</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0.9061699961400649</v>
+      </c>
+      <c r="S21">
+        <v>2.341898905213696</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.173868406420866</v>
+        <v>4.010056419458351</v>
       </c>
       <c r="C22">
-        <v>1.260297256309627</v>
+        <v>1.375883588182774</v>
       </c>
       <c r="D22">
-        <v>0.3484787640829552</v>
+        <v>0.3627564276315383</v>
       </c>
       <c r="E22">
-        <v>0.3282595254494396</v>
+        <v>0.3317081462687526</v>
       </c>
       <c r="F22">
-        <v>1.294477103821848</v>
+        <v>1.217127963661696</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.01222863035115396</v>
+        <v>0.01192923702192003</v>
       </c>
       <c r="I22">
-        <v>0.01268188500167255</v>
+        <v>0.01236123647011844</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079829286</v>
       </c>
       <c r="K22">
-        <v>0.29182682026509</v>
+        <v>0.2503453991801869</v>
       </c>
       <c r="L22">
-        <v>0.390141567447202</v>
+        <v>0.1206235937617386</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.08822591260797807</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.386795246803942</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.8499688268949654</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>2.680795417379329</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0.9174528494187371</v>
+      </c>
+      <c r="S22">
+        <v>2.45702822427603</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.025058168147325</v>
+        <v>3.869842547097903</v>
       </c>
       <c r="C23">
-        <v>1.213497229678069</v>
+        <v>1.322985831930566</v>
       </c>
       <c r="D23">
-        <v>0.3369701750148835</v>
+        <v>0.350647245126197</v>
       </c>
       <c r="E23">
-        <v>0.3175573077249965</v>
+        <v>0.3209296247263396</v>
       </c>
       <c r="F23">
-        <v>1.260507926387291</v>
+        <v>1.186640427917396</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.01085264954674114</v>
+        <v>0.010619339562585</v>
       </c>
       <c r="I23">
-        <v>0.01138712567925015</v>
+        <v>0.01117266749495993</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787805219</v>
       </c>
       <c r="K23">
-        <v>0.2898671978563812</v>
+        <v>0.24987180347539</v>
       </c>
       <c r="L23">
-        <v>0.3774928689368977</v>
+        <v>0.1224894711645597</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.08472924764643253</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3744138461898245</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.8461839816954324</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>2.615478632591504</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.9093464147763939</v>
+      </c>
+      <c r="S23">
+        <v>2.401504682340942</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.453613327410494</v>
+        <v>3.330371697724672</v>
       </c>
       <c r="C24">
-        <v>1.042409596447129</v>
+        <v>1.129419069214691</v>
       </c>
       <c r="D24">
-        <v>0.2942387567723017</v>
+        <v>0.3056870118350332</v>
       </c>
       <c r="E24">
-        <v>0.2773387462311732</v>
+        <v>0.2804176394472861</v>
       </c>
       <c r="F24">
-        <v>1.130299976857899</v>
+        <v>1.069392699625993</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.006292172136856011</v>
+        <v>0.006256910279635985</v>
       </c>
       <c r="I24">
-        <v>0.007409420601161898</v>
+        <v>0.007603039328706096</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.076368825553498</v>
       </c>
       <c r="K24">
-        <v>0.2812767202267246</v>
+        <v>0.2469250004906236</v>
       </c>
       <c r="L24">
-        <v>0.3296005671058708</v>
+        <v>0.1291883265161182</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.0718803599197102</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.3275026791759075</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.8364601086933305</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>2.363233603251331</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.8837175525716674</v>
+      </c>
+      <c r="S24">
+        <v>2.185794664106709</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.836548021513522</v>
+        <v>2.746255033180603</v>
       </c>
       <c r="C25">
-        <v>0.8593728935617548</v>
+        <v>0.9229266620051533</v>
       </c>
       <c r="D25">
-        <v>0.2484943606701364</v>
+        <v>0.2576147670952906</v>
       </c>
       <c r="E25">
-        <v>0.2342029529472001</v>
+        <v>0.2369601685476468</v>
       </c>
       <c r="F25">
-        <v>0.993752822328716</v>
+        <v>0.9461121013510763</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.002637552467646409</v>
+        <v>0.002717096907196681</v>
       </c>
       <c r="I25">
-        <v>0.004139523023566127</v>
+        <v>0.004601937190611416</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.07595196022662787</v>
       </c>
       <c r="K25">
-        <v>0.2736514746151641</v>
+        <v>0.2449716223969212</v>
       </c>
       <c r="L25">
-        <v>0.2781905350424836</v>
+        <v>0.1368511634311638</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.06044027471478586</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2770897250888993</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.8290939924505949</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>2.101939046747276</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.8595450691941124</v>
+      </c>
+      <c r="S25">
+        <v>1.961751786097494</v>
       </c>
     </row>
   </sheetData>
